--- a/工作簿1.xlsx
+++ b/工作簿1.xlsx
@@ -12,12 +12,12 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="144525" calcMode="manual" calcOnSave="0"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="516" uniqueCount="279">
   <si>
     <t>70.58/344397/2416096674</t>
   </si>
@@ -820,6 +820,143 @@
   </si>
   <si>
     <t>volume_sell_five</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>private</t>
+  </si>
+  <si>
+    <t>String</t>
+  </si>
+  <si>
+    <t>BigDecimal</t>
+  </si>
+  <si>
+    <t>BigInteger</t>
+  </si>
+  <si>
+    <t>limitDown</t>
+  </si>
+  <si>
+    <t>marketCity</t>
+  </si>
+  <si>
+    <t>stockName</t>
+  </si>
+  <si>
+    <t>stockId</t>
+  </si>
+  <si>
+    <t>presentPrice</t>
+  </si>
+  <si>
+    <t>yesterdayPrice</t>
+  </si>
+  <si>
+    <t>todayPrice</t>
+  </si>
+  <si>
+    <t>turnoverVolume</t>
+  </si>
+  <si>
+    <t>priceBuyOne</t>
+  </si>
+  <si>
+    <t>volumeBuyOne</t>
+  </si>
+  <si>
+    <t>priceBuyTwo</t>
+  </si>
+  <si>
+    <t>volumeBuyTwo</t>
+  </si>
+  <si>
+    <t>priceBuyThree</t>
+  </si>
+  <si>
+    <t>volumeBuyThree</t>
+  </si>
+  <si>
+    <t>priceBuyFour</t>
+  </si>
+  <si>
+    <t>volumeBuyFour</t>
+  </si>
+  <si>
+    <t>priceBuyFive</t>
+  </si>
+  <si>
+    <t>volumeBuyFive</t>
+  </si>
+  <si>
+    <t>priceSellOne</t>
+  </si>
+  <si>
+    <t>volumeSellOne</t>
+  </si>
+  <si>
+    <t>priceSellTwo</t>
+  </si>
+  <si>
+    <t>volumeSellTwo</t>
+  </si>
+  <si>
+    <t>priceSellThree</t>
+  </si>
+  <si>
+    <t>volumeSellThree</t>
+  </si>
+  <si>
+    <t>priceSellFour</t>
+  </si>
+  <si>
+    <t>volumeSellFour</t>
+  </si>
+  <si>
+    <t>priceSellFive</t>
+  </si>
+  <si>
+    <t>volumeSellFive</t>
+  </si>
+  <si>
+    <t>statisDate</t>
+  </si>
+  <si>
+    <t>riseRate</t>
+  </si>
+  <si>
+    <t>highestPrice</t>
+  </si>
+  <si>
+    <t>lowestPrice</t>
+  </si>
+  <si>
+    <t>turnoverMoney</t>
+  </si>
+  <si>
+    <t>turnoverRate</t>
+  </si>
+  <si>
+    <t>PERate</t>
+  </si>
+  <si>
+    <t>circulationMarket</t>
+  </si>
+  <si>
+    <t>totalMarket</t>
+  </si>
+  <si>
+    <t>PBRate</t>
+  </si>
+  <si>
+    <t>limitUp</t>
+  </si>
+  <si>
+    <t>new BigDecimal(</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#{item.isBackground}</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -827,7 +964,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -849,6 +986,12 @@
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -873,7 +1016,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -885,6 +1028,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2189,10 +2335,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:J53"/>
+  <dimension ref="A1:W53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+    <sheetView tabSelected="1" topLeftCell="B28" workbookViewId="0">
+      <selection activeCell="R48" sqref="R48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2200,9 +2346,17 @@
     <col min="1" max="1" width="29.125" customWidth="1"/>
     <col min="3" max="3" width="12.75" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="19.5" customWidth="1"/>
+    <col min="16" max="19" width="14.125" customWidth="1"/>
+    <col min="20" max="20" width="18.875" customWidth="1"/>
+    <col min="21" max="21" width="16.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10">
+    <row r="1" spans="1:23">
+      <c r="Q1" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23">
       <c r="A2" t="s">
         <v>164</v>
       </c>
@@ -2214,8 +2368,29 @@
         <f>"`"&amp;A2&amp;"`"&amp;","</f>
         <v>`market_city`,</v>
       </c>
-    </row>
-    <row r="3" spans="1:10">
+      <c r="N2" t="s">
+        <v>234</v>
+      </c>
+      <c r="O2" t="s">
+        <v>235</v>
+      </c>
+      <c r="P2" t="s">
+        <v>239</v>
+      </c>
+      <c r="Q2" t="str">
+        <f>"#{item."&amp;P2&amp;"}"&amp;","</f>
+        <v>#{item.marketCity},</v>
+      </c>
+      <c r="R2" t="str">
+        <f>Q2</f>
+        <v>#{item.marketCity},</v>
+      </c>
+      <c r="T2" t="str">
+        <f>"this."&amp;P2&amp;"="</f>
+        <v>this.marketCity=</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23">
       <c r="A3" t="s">
         <v>83</v>
       </c>
@@ -2233,8 +2408,29 @@
         <f t="shared" ref="F3:F45" si="1">"`"&amp;A3&amp;"`"&amp;","</f>
         <v>`stock_name`,</v>
       </c>
-    </row>
-    <row r="4" spans="1:10">
+      <c r="N3" t="s">
+        <v>234</v>
+      </c>
+      <c r="O3" t="s">
+        <v>235</v>
+      </c>
+      <c r="P3" t="s">
+        <v>240</v>
+      </c>
+      <c r="Q3" t="str">
+        <f t="shared" ref="Q3:Q45" si="2">"#{item."&amp;P3&amp;"}"&amp;","</f>
+        <v>#{item.stockName},</v>
+      </c>
+      <c r="R3" t="str">
+        <f>R2&amp;R2</f>
+        <v>#{item.marketCity},#{item.marketCity},</v>
+      </c>
+      <c r="T3" t="str">
+        <f t="shared" ref="T3:T45" si="3">"this."&amp;P3&amp;"="</f>
+        <v>this.stockName=</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23">
       <c r="A4" t="s">
         <v>82</v>
       </c>
@@ -2252,8 +2448,29 @@
         <f t="shared" si="1"/>
         <v>`stock_id`,</v>
       </c>
-    </row>
-    <row r="5" spans="1:10">
+      <c r="N4" t="s">
+        <v>234</v>
+      </c>
+      <c r="O4" t="s">
+        <v>235</v>
+      </c>
+      <c r="P4" t="s">
+        <v>241</v>
+      </c>
+      <c r="Q4" t="str">
+        <f t="shared" si="2"/>
+        <v>#{item.stockId},</v>
+      </c>
+      <c r="R4" t="str">
+        <f t="shared" ref="R4:R45" si="4">R3&amp;R3</f>
+        <v>#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},</v>
+      </c>
+      <c r="T4" t="str">
+        <f t="shared" si="3"/>
+        <v>this.stockId=</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" ht="15">
       <c r="A5" t="s">
         <v>86</v>
       </c>
@@ -2276,8 +2493,40 @@
       <c r="H5" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="6" spans="1:10">
+      <c r="N5" t="s">
+        <v>234</v>
+      </c>
+      <c r="O5" t="s">
+        <v>236</v>
+      </c>
+      <c r="P5" t="s">
+        <v>242</v>
+      </c>
+      <c r="Q5" t="str">
+        <f t="shared" si="2"/>
+        <v>#{item.presentPrice},</v>
+      </c>
+      <c r="R5" t="str">
+        <f t="shared" si="4"/>
+        <v>#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},</v>
+      </c>
+      <c r="T5" t="str">
+        <f t="shared" si="3"/>
+        <v>this.presentPrice=</v>
+      </c>
+      <c r="U5" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="V5" t="str">
+        <f>"stockInfo"&amp;"["&amp;B5&amp;"]"&amp;")"&amp;";"</f>
+        <v>stockInfo[3]);</v>
+      </c>
+      <c r="W5" t="str">
+        <f>T5&amp;U5&amp;V5</f>
+        <v>this.presentPrice=new BigDecimal(stockInfo[3]);</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" ht="15">
       <c r="A6" t="s">
         <v>88</v>
       </c>
@@ -2301,8 +2550,40 @@
       <c r="I6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:10">
+      <c r="N6" t="s">
+        <v>234</v>
+      </c>
+      <c r="O6" t="s">
+        <v>236</v>
+      </c>
+      <c r="P6" t="s">
+        <v>243</v>
+      </c>
+      <c r="Q6" t="str">
+        <f t="shared" si="2"/>
+        <v>#{item.yesterdayPrice},</v>
+      </c>
+      <c r="R6" t="str">
+        <f t="shared" si="4"/>
+        <v>#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},</v>
+      </c>
+      <c r="T6" t="str">
+        <f t="shared" si="3"/>
+        <v>this.yesterdayPrice=</v>
+      </c>
+      <c r="U6" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="V6" t="str">
+        <f t="shared" ref="V6:V45" si="5">"stockInfo"&amp;"["&amp;B6&amp;"]"&amp;")"&amp;";"</f>
+        <v>stockInfo[4]);</v>
+      </c>
+      <c r="W6" t="str">
+        <f t="shared" ref="W6:W45" si="6">T6&amp;U6&amp;V6</f>
+        <v>this.yesterdayPrice=new BigDecimal(stockInfo[4]);</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" ht="15">
       <c r="A7" t="s">
         <v>90</v>
       </c>
@@ -2329,8 +2610,40 @@
       <c r="J7">
         <v>601318</v>
       </c>
-    </row>
-    <row r="8" spans="1:10">
+      <c r="N7" t="s">
+        <v>234</v>
+      </c>
+      <c r="O7" t="s">
+        <v>236</v>
+      </c>
+      <c r="P7" t="s">
+        <v>244</v>
+      </c>
+      <c r="Q7" t="str">
+        <f t="shared" si="2"/>
+        <v>#{item.todayPrice},</v>
+      </c>
+      <c r="R7" t="str">
+        <f t="shared" si="4"/>
+        <v>#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},</v>
+      </c>
+      <c r="T7" t="str">
+        <f t="shared" si="3"/>
+        <v>this.todayPrice=</v>
+      </c>
+      <c r="U7" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="V7" t="str">
+        <f t="shared" si="5"/>
+        <v>stockInfo[5]);</v>
+      </c>
+      <c r="W7" t="str">
+        <f t="shared" si="6"/>
+        <v>this.todayPrice=new BigDecimal(stockInfo[5]);</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" ht="15">
       <c r="A8" t="s">
         <v>92</v>
       </c>
@@ -2357,8 +2670,40 @@
       <c r="J8">
         <v>70.58</v>
       </c>
-    </row>
-    <row r="9" spans="1:10">
+      <c r="N8" t="s">
+        <v>234</v>
+      </c>
+      <c r="O8" t="s">
+        <v>236</v>
+      </c>
+      <c r="P8" t="s">
+        <v>245</v>
+      </c>
+      <c r="Q8" t="str">
+        <f t="shared" si="2"/>
+        <v>#{item.turnoverVolume},</v>
+      </c>
+      <c r="R8" t="str">
+        <f t="shared" si="4"/>
+        <v>#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},</v>
+      </c>
+      <c r="T8" t="str">
+        <f t="shared" si="3"/>
+        <v>this.turnoverVolume=</v>
+      </c>
+      <c r="U8" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="V8" t="str">
+        <f t="shared" si="5"/>
+        <v>stockInfo[6]);</v>
+      </c>
+      <c r="W8" t="str">
+        <f t="shared" si="6"/>
+        <v>this.turnoverVolume=new BigDecimal(stockInfo[6]);</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" ht="15">
       <c r="A9" t="s">
         <v>94</v>
       </c>
@@ -2385,8 +2730,40 @@
       <c r="J9">
         <v>70.349999999999994</v>
       </c>
-    </row>
-    <row r="10" spans="1:10">
+      <c r="N9" t="s">
+        <v>234</v>
+      </c>
+      <c r="O9" t="s">
+        <v>236</v>
+      </c>
+      <c r="P9" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q9" t="str">
+        <f t="shared" si="2"/>
+        <v>#{item.outside},</v>
+      </c>
+      <c r="R9" t="str">
+        <f t="shared" si="4"/>
+        <v>#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},</v>
+      </c>
+      <c r="T9" t="str">
+        <f t="shared" si="3"/>
+        <v>this.outside=</v>
+      </c>
+      <c r="U9" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="V9" t="str">
+        <f t="shared" si="5"/>
+        <v>stockInfo[7]);</v>
+      </c>
+      <c r="W9" t="str">
+        <f t="shared" si="6"/>
+        <v>this.outside=new BigDecimal(stockInfo[7]);</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" ht="15">
       <c r="A10" t="s">
         <v>96</v>
       </c>
@@ -2413,8 +2790,40 @@
       <c r="J10">
         <v>69.48</v>
       </c>
-    </row>
-    <row r="11" spans="1:10">
+      <c r="N10" t="s">
+        <v>234</v>
+      </c>
+      <c r="O10" t="s">
+        <v>236</v>
+      </c>
+      <c r="P10" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q10" t="str">
+        <f t="shared" si="2"/>
+        <v>#{item.inside},</v>
+      </c>
+      <c r="R10" t="str">
+        <f t="shared" si="4"/>
+        <v>#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},</v>
+      </c>
+      <c r="T10" t="str">
+        <f t="shared" si="3"/>
+        <v>this.inside=</v>
+      </c>
+      <c r="U10" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="V10" t="str">
+        <f t="shared" si="5"/>
+        <v>stockInfo[8]);</v>
+      </c>
+      <c r="W10" t="str">
+        <f t="shared" si="6"/>
+        <v>this.inside=new BigDecimal(stockInfo[8]);</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" ht="15">
       <c r="A11" t="s">
         <v>214</v>
       </c>
@@ -2441,8 +2850,40 @@
       <c r="J11">
         <v>344397</v>
       </c>
-    </row>
-    <row r="12" spans="1:10">
+      <c r="N11" t="s">
+        <v>234</v>
+      </c>
+      <c r="O11" t="s">
+        <v>236</v>
+      </c>
+      <c r="P11" t="s">
+        <v>246</v>
+      </c>
+      <c r="Q11" t="str">
+        <f t="shared" si="2"/>
+        <v>#{item.priceBuyOne},</v>
+      </c>
+      <c r="R11" t="str">
+        <f t="shared" si="4"/>
+        <v>#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},</v>
+      </c>
+      <c r="T11" t="str">
+        <f t="shared" si="3"/>
+        <v>this.priceBuyOne=</v>
+      </c>
+      <c r="U11" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="V11" t="str">
+        <f t="shared" si="5"/>
+        <v>stockInfo[9]);</v>
+      </c>
+      <c r="W11" t="str">
+        <f t="shared" si="6"/>
+        <v>this.priceBuyOne=new BigDecimal(stockInfo[9]);</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" ht="15">
       <c r="A12" t="s">
         <v>215</v>
       </c>
@@ -2469,8 +2910,40 @@
       <c r="J12">
         <v>187225</v>
       </c>
-    </row>
-    <row r="13" spans="1:10">
+      <c r="N12" t="s">
+        <v>234</v>
+      </c>
+      <c r="O12" t="s">
+        <v>236</v>
+      </c>
+      <c r="P12" t="s">
+        <v>247</v>
+      </c>
+      <c r="Q12" t="str">
+        <f t="shared" si="2"/>
+        <v>#{item.volumeBuyOne},</v>
+      </c>
+      <c r="R12" t="str">
+        <f t="shared" si="4"/>
+        <v>#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},</v>
+      </c>
+      <c r="T12" t="str">
+        <f t="shared" si="3"/>
+        <v>this.volumeBuyOne=</v>
+      </c>
+      <c r="U12" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="V12" t="str">
+        <f t="shared" si="5"/>
+        <v>stockInfo[10]);</v>
+      </c>
+      <c r="W12" t="str">
+        <f t="shared" si="6"/>
+        <v>this.volumeBuyOne=new BigDecimal(stockInfo[10]);</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" ht="15">
       <c r="A13" t="s">
         <v>216</v>
       </c>
@@ -2497,8 +2970,40 @@
       <c r="J13">
         <v>157172</v>
       </c>
-    </row>
-    <row r="14" spans="1:10">
+      <c r="N13" t="s">
+        <v>234</v>
+      </c>
+      <c r="O13" t="s">
+        <v>236</v>
+      </c>
+      <c r="P13" t="s">
+        <v>248</v>
+      </c>
+      <c r="Q13" t="str">
+        <f t="shared" si="2"/>
+        <v>#{item.priceBuyTwo},</v>
+      </c>
+      <c r="R13" t="str">
+        <f t="shared" si="4"/>
+        <v>#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.mark</v>
+      </c>
+      <c r="T13" t="str">
+        <f t="shared" si="3"/>
+        <v>this.priceBuyTwo=</v>
+      </c>
+      <c r="U13" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="V13" t="str">
+        <f t="shared" si="5"/>
+        <v>stockInfo[11]);</v>
+      </c>
+      <c r="W13" t="str">
+        <f t="shared" si="6"/>
+        <v>this.priceBuyTwo=new BigDecimal(stockInfo[11]);</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" ht="15">
       <c r="A14" t="s">
         <v>217</v>
       </c>
@@ -2525,8 +3030,40 @@
       <c r="J14">
         <v>70.58</v>
       </c>
-    </row>
-    <row r="15" spans="1:10">
+      <c r="N14" t="s">
+        <v>234</v>
+      </c>
+      <c r="O14" t="s">
+        <v>236</v>
+      </c>
+      <c r="P14" t="s">
+        <v>249</v>
+      </c>
+      <c r="Q14" t="str">
+        <f t="shared" si="2"/>
+        <v>#{item.volumeBuyTwo},</v>
+      </c>
+      <c r="R14" t="str">
+        <f t="shared" si="4"/>
+        <v>#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.mark</v>
+      </c>
+      <c r="T14" t="str">
+        <f t="shared" si="3"/>
+        <v>this.volumeBuyTwo=</v>
+      </c>
+      <c r="U14" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="V14" t="str">
+        <f t="shared" si="5"/>
+        <v>stockInfo[12]);</v>
+      </c>
+      <c r="W14" t="str">
+        <f t="shared" si="6"/>
+        <v>this.volumeBuyTwo=new BigDecimal(stockInfo[12]);</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" ht="15">
       <c r="A15" t="s">
         <v>218</v>
       </c>
@@ -2553,8 +3090,40 @@
       <c r="J15">
         <v>24</v>
       </c>
-    </row>
-    <row r="16" spans="1:10">
+      <c r="N15" t="s">
+        <v>234</v>
+      </c>
+      <c r="O15" t="s">
+        <v>236</v>
+      </c>
+      <c r="P15" t="s">
+        <v>250</v>
+      </c>
+      <c r="Q15" t="str">
+        <f t="shared" si="2"/>
+        <v>#{item.priceBuyThree},</v>
+      </c>
+      <c r="R15" t="str">
+        <f t="shared" si="4"/>
+        <v>#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.mark</v>
+      </c>
+      <c r="T15" t="str">
+        <f t="shared" si="3"/>
+        <v>this.priceBuyThree=</v>
+      </c>
+      <c r="U15" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="V15" t="str">
+        <f t="shared" si="5"/>
+        <v>stockInfo[13]);</v>
+      </c>
+      <c r="W15" t="str">
+        <f t="shared" si="6"/>
+        <v>this.priceBuyThree=new BigDecimal(stockInfo[13]);</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" ht="15">
       <c r="A16" t="s">
         <v>219</v>
       </c>
@@ -2581,8 +3150,40 @@
       <c r="J16">
         <v>70.569999999999993</v>
       </c>
-    </row>
-    <row r="17" spans="1:10">
+      <c r="N16" t="s">
+        <v>234</v>
+      </c>
+      <c r="O16" t="s">
+        <v>236</v>
+      </c>
+      <c r="P16" t="s">
+        <v>251</v>
+      </c>
+      <c r="Q16" t="str">
+        <f t="shared" si="2"/>
+        <v>#{item.volumeBuyThree},</v>
+      </c>
+      <c r="R16" t="str">
+        <f t="shared" si="4"/>
+        <v>#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.mark</v>
+      </c>
+      <c r="T16" t="str">
+        <f t="shared" si="3"/>
+        <v>this.volumeBuyThree=</v>
+      </c>
+      <c r="U16" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="V16" t="str">
+        <f t="shared" si="5"/>
+        <v>stockInfo[14]);</v>
+      </c>
+      <c r="W16" t="str">
+        <f t="shared" si="6"/>
+        <v>this.volumeBuyThree=new BigDecimal(stockInfo[14]);</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" ht="15">
       <c r="A17" t="s">
         <v>220</v>
       </c>
@@ -2609,8 +3210,40 @@
       <c r="J17">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="1:10">
+      <c r="N17" t="s">
+        <v>234</v>
+      </c>
+      <c r="O17" t="s">
+        <v>236</v>
+      </c>
+      <c r="P17" t="s">
+        <v>252</v>
+      </c>
+      <c r="Q17" t="str">
+        <f t="shared" si="2"/>
+        <v>#{item.priceBuyFour},</v>
+      </c>
+      <c r="R17" t="str">
+        <f t="shared" si="4"/>
+        <v>#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.mark</v>
+      </c>
+      <c r="T17" t="str">
+        <f t="shared" si="3"/>
+        <v>this.priceBuyFour=</v>
+      </c>
+      <c r="U17" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="V17" t="str">
+        <f t="shared" si="5"/>
+        <v>stockInfo[15]);</v>
+      </c>
+      <c r="W17" t="str">
+        <f t="shared" si="6"/>
+        <v>this.priceBuyFour=new BigDecimal(stockInfo[15]);</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" ht="15">
       <c r="A18" t="s">
         <v>221</v>
       </c>
@@ -2637,8 +3270,40 @@
       <c r="J18">
         <v>70.56</v>
       </c>
-    </row>
-    <row r="19" spans="1:10">
+      <c r="N18" t="s">
+        <v>234</v>
+      </c>
+      <c r="O18" t="s">
+        <v>236</v>
+      </c>
+      <c r="P18" t="s">
+        <v>253</v>
+      </c>
+      <c r="Q18" t="str">
+        <f t="shared" si="2"/>
+        <v>#{item.volumeBuyFour},</v>
+      </c>
+      <c r="R18" t="str">
+        <f t="shared" si="4"/>
+        <v>#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.mark</v>
+      </c>
+      <c r="T18" t="str">
+        <f t="shared" si="3"/>
+        <v>this.volumeBuyFour=</v>
+      </c>
+      <c r="U18" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="V18" t="str">
+        <f t="shared" si="5"/>
+        <v>stockInfo[16]);</v>
+      </c>
+      <c r="W18" t="str">
+        <f t="shared" si="6"/>
+        <v>this.volumeBuyFour=new BigDecimal(stockInfo[16]);</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" ht="15">
       <c r="A19" t="s">
         <v>222</v>
       </c>
@@ -2665,8 +3330,40 @@
       <c r="J19">
         <v>3</v>
       </c>
-    </row>
-    <row r="20" spans="1:10">
+      <c r="N19" t="s">
+        <v>234</v>
+      </c>
+      <c r="O19" t="s">
+        <v>236</v>
+      </c>
+      <c r="P19" t="s">
+        <v>254</v>
+      </c>
+      <c r="Q19" t="str">
+        <f t="shared" si="2"/>
+        <v>#{item.priceBuyFive},</v>
+      </c>
+      <c r="R19" t="str">
+        <f t="shared" si="4"/>
+        <v>#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.mark</v>
+      </c>
+      <c r="T19" t="str">
+        <f t="shared" si="3"/>
+        <v>this.priceBuyFive=</v>
+      </c>
+      <c r="U19" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="V19" t="str">
+        <f t="shared" si="5"/>
+        <v>stockInfo[17]);</v>
+      </c>
+      <c r="W19" t="str">
+        <f t="shared" si="6"/>
+        <v>this.priceBuyFive=new BigDecimal(stockInfo[17]);</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" ht="15">
       <c r="A20" t="s">
         <v>223</v>
       </c>
@@ -2693,8 +3390,40 @@
       <c r="J20">
         <v>70.540000000000006</v>
       </c>
-    </row>
-    <row r="21" spans="1:10">
+      <c r="N20" t="s">
+        <v>234</v>
+      </c>
+      <c r="O20" t="s">
+        <v>236</v>
+      </c>
+      <c r="P20" t="s">
+        <v>255</v>
+      </c>
+      <c r="Q20" t="str">
+        <f t="shared" si="2"/>
+        <v>#{item.volumeBuyFive},</v>
+      </c>
+      <c r="R20" t="str">
+        <f t="shared" si="4"/>
+        <v>#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.mark</v>
+      </c>
+      <c r="T20" t="str">
+        <f t="shared" si="3"/>
+        <v>this.volumeBuyFive=</v>
+      </c>
+      <c r="U20" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="V20" t="str">
+        <f t="shared" si="5"/>
+        <v>stockInfo[18]);</v>
+      </c>
+      <c r="W20" t="str">
+        <f t="shared" si="6"/>
+        <v>this.volumeBuyFive=new BigDecimal(stockInfo[18]);</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" ht="15">
       <c r="A21" t="s">
         <v>224</v>
       </c>
@@ -2721,8 +3450,40 @@
       <c r="J21">
         <v>26</v>
       </c>
-    </row>
-    <row r="22" spans="1:10">
+      <c r="N21" t="s">
+        <v>234</v>
+      </c>
+      <c r="O21" t="s">
+        <v>236</v>
+      </c>
+      <c r="P21" t="s">
+        <v>256</v>
+      </c>
+      <c r="Q21" t="str">
+        <f t="shared" si="2"/>
+        <v>#{item.priceSellOne},</v>
+      </c>
+      <c r="R21" t="str">
+        <f t="shared" si="4"/>
+        <v>#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.mark</v>
+      </c>
+      <c r="T21" t="str">
+        <f t="shared" si="3"/>
+        <v>this.priceSellOne=</v>
+      </c>
+      <c r="U21" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="V21" t="str">
+        <f t="shared" si="5"/>
+        <v>stockInfo[19]);</v>
+      </c>
+      <c r="W21" t="str">
+        <f t="shared" si="6"/>
+        <v>this.priceSellOne=new BigDecimal(stockInfo[19]);</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" ht="15">
       <c r="A22" t="s">
         <v>225</v>
       </c>
@@ -2749,8 +3510,40 @@
       <c r="J22">
         <v>70.53</v>
       </c>
-    </row>
-    <row r="23" spans="1:10">
+      <c r="N22" t="s">
+        <v>234</v>
+      </c>
+      <c r="O22" t="s">
+        <v>236</v>
+      </c>
+      <c r="P22" t="s">
+        <v>257</v>
+      </c>
+      <c r="Q22" t="str">
+        <f t="shared" si="2"/>
+        <v>#{item.volumeSellOne},</v>
+      </c>
+      <c r="R22" t="str">
+        <f t="shared" si="4"/>
+        <v>#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.mark</v>
+      </c>
+      <c r="T22" t="str">
+        <f t="shared" si="3"/>
+        <v>this.volumeSellOne=</v>
+      </c>
+      <c r="U22" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="V22" t="str">
+        <f t="shared" si="5"/>
+        <v>stockInfo[20]);</v>
+      </c>
+      <c r="W22" t="str">
+        <f t="shared" si="6"/>
+        <v>this.volumeSellOne=new BigDecimal(stockInfo[20]);</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" ht="15">
       <c r="A23" t="s">
         <v>226</v>
       </c>
@@ -2777,8 +3570,40 @@
       <c r="J23">
         <v>28</v>
       </c>
-    </row>
-    <row r="24" spans="1:10">
+      <c r="N23" t="s">
+        <v>234</v>
+      </c>
+      <c r="O23" t="s">
+        <v>236</v>
+      </c>
+      <c r="P23" t="s">
+        <v>258</v>
+      </c>
+      <c r="Q23" t="str">
+        <f t="shared" si="2"/>
+        <v>#{item.priceSellTwo},</v>
+      </c>
+      <c r="R23" t="str">
+        <f t="shared" si="4"/>
+        <v>#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.mark</v>
+      </c>
+      <c r="T23" t="str">
+        <f t="shared" si="3"/>
+        <v>this.priceSellTwo=</v>
+      </c>
+      <c r="U23" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="V23" t="str">
+        <f t="shared" si="5"/>
+        <v>stockInfo[21]);</v>
+      </c>
+      <c r="W23" t="str">
+        <f t="shared" si="6"/>
+        <v>this.priceSellTwo=new BigDecimal(stockInfo[21]);</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23" ht="15">
       <c r="A24" t="s">
         <v>227</v>
       </c>
@@ -2805,8 +3630,40 @@
       <c r="J24">
         <v>70.599999999999994</v>
       </c>
-    </row>
-    <row r="25" spans="1:10">
+      <c r="N24" t="s">
+        <v>234</v>
+      </c>
+      <c r="O24" t="s">
+        <v>236</v>
+      </c>
+      <c r="P24" t="s">
+        <v>259</v>
+      </c>
+      <c r="Q24" t="str">
+        <f t="shared" si="2"/>
+        <v>#{item.volumeSellTwo},</v>
+      </c>
+      <c r="R24" t="str">
+        <f t="shared" si="4"/>
+        <v>#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.mark</v>
+      </c>
+      <c r="T24" t="str">
+        <f t="shared" si="3"/>
+        <v>this.volumeSellTwo=</v>
+      </c>
+      <c r="U24" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="V24" t="str">
+        <f t="shared" si="5"/>
+        <v>stockInfo[22]);</v>
+      </c>
+      <c r="W24" t="str">
+        <f t="shared" si="6"/>
+        <v>this.volumeSellTwo=new BigDecimal(stockInfo[22]);</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23" ht="15">
       <c r="A25" t="s">
         <v>228</v>
       </c>
@@ -2833,8 +3690,40 @@
       <c r="J25">
         <v>101</v>
       </c>
-    </row>
-    <row r="26" spans="1:10">
+      <c r="N25" t="s">
+        <v>234</v>
+      </c>
+      <c r="O25" t="s">
+        <v>236</v>
+      </c>
+      <c r="P25" t="s">
+        <v>260</v>
+      </c>
+      <c r="Q25" t="str">
+        <f t="shared" si="2"/>
+        <v>#{item.priceSellThree},</v>
+      </c>
+      <c r="R25" t="str">
+        <f t="shared" si="4"/>
+        <v>#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.mark</v>
+      </c>
+      <c r="T25" t="str">
+        <f t="shared" si="3"/>
+        <v>this.priceSellThree=</v>
+      </c>
+      <c r="U25" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="V25" t="str">
+        <f t="shared" si="5"/>
+        <v>stockInfo[23]);</v>
+      </c>
+      <c r="W25" t="str">
+        <f t="shared" si="6"/>
+        <v>this.priceSellThree=new BigDecimal(stockInfo[23]);</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23" ht="15">
       <c r="A26" t="s">
         <v>229</v>
       </c>
@@ -2861,8 +3750,40 @@
       <c r="J26">
         <v>70.62</v>
       </c>
-    </row>
-    <row r="27" spans="1:10">
+      <c r="N26" t="s">
+        <v>234</v>
+      </c>
+      <c r="O26" t="s">
+        <v>236</v>
+      </c>
+      <c r="P26" t="s">
+        <v>261</v>
+      </c>
+      <c r="Q26" t="str">
+        <f t="shared" si="2"/>
+        <v>#{item.volumeSellThree},</v>
+      </c>
+      <c r="R26" t="str">
+        <f t="shared" si="4"/>
+        <v>#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.mark</v>
+      </c>
+      <c r="T26" t="str">
+        <f t="shared" si="3"/>
+        <v>this.volumeSellThree=</v>
+      </c>
+      <c r="U26" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="V26" t="str">
+        <f t="shared" si="5"/>
+        <v>stockInfo[24]);</v>
+      </c>
+      <c r="W26" t="str">
+        <f t="shared" si="6"/>
+        <v>this.volumeSellThree=new BigDecimal(stockInfo[24]);</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23" ht="15">
       <c r="A27" t="s">
         <v>230</v>
       </c>
@@ -2889,8 +3810,40 @@
       <c r="J27">
         <v>252</v>
       </c>
-    </row>
-    <row r="28" spans="1:10">
+      <c r="N27" t="s">
+        <v>234</v>
+      </c>
+      <c r="O27" t="s">
+        <v>236</v>
+      </c>
+      <c r="P27" t="s">
+        <v>262</v>
+      </c>
+      <c r="Q27" t="str">
+        <f t="shared" si="2"/>
+        <v>#{item.priceSellFour},</v>
+      </c>
+      <c r="R27" t="str">
+        <f t="shared" si="4"/>
+        <v>#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.mark</v>
+      </c>
+      <c r="T27" t="str">
+        <f t="shared" si="3"/>
+        <v>this.priceSellFour=</v>
+      </c>
+      <c r="U27" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="V27" t="str">
+        <f t="shared" si="5"/>
+        <v>stockInfo[25]);</v>
+      </c>
+      <c r="W27" t="str">
+        <f t="shared" si="6"/>
+        <v>this.priceSellFour=new BigDecimal(stockInfo[25]);</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23" ht="15">
       <c r="A28" t="s">
         <v>231</v>
       </c>
@@ -2917,8 +3870,40 @@
       <c r="J28">
         <v>70.63</v>
       </c>
-    </row>
-    <row r="29" spans="1:10">
+      <c r="N28" t="s">
+        <v>234</v>
+      </c>
+      <c r="O28" t="s">
+        <v>236</v>
+      </c>
+      <c r="P28" t="s">
+        <v>263</v>
+      </c>
+      <c r="Q28" t="str">
+        <f t="shared" si="2"/>
+        <v>#{item.volumeSellFour},</v>
+      </c>
+      <c r="R28" t="str">
+        <f t="shared" si="4"/>
+        <v>#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.mark</v>
+      </c>
+      <c r="T28" t="str">
+        <f t="shared" si="3"/>
+        <v>this.volumeSellFour=</v>
+      </c>
+      <c r="U28" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="V28" t="str">
+        <f t="shared" si="5"/>
+        <v>stockInfo[26]);</v>
+      </c>
+      <c r="W28" t="str">
+        <f t="shared" si="6"/>
+        <v>this.volumeSellFour=new BigDecimal(stockInfo[26]);</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23" ht="15">
       <c r="A29" t="s">
         <v>232</v>
       </c>
@@ -2945,8 +3930,40 @@
       <c r="J29">
         <v>114</v>
       </c>
-    </row>
-    <row r="30" spans="1:10">
+      <c r="N29" t="s">
+        <v>234</v>
+      </c>
+      <c r="O29" t="s">
+        <v>236</v>
+      </c>
+      <c r="P29" t="s">
+        <v>264</v>
+      </c>
+      <c r="Q29" t="str">
+        <f t="shared" si="2"/>
+        <v>#{item.priceSellFive},</v>
+      </c>
+      <c r="R29" t="str">
+        <f t="shared" si="4"/>
+        <v>#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.mark</v>
+      </c>
+      <c r="T29" t="str">
+        <f t="shared" si="3"/>
+        <v>this.priceSellFive=</v>
+      </c>
+      <c r="U29" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="V29" t="str">
+        <f t="shared" si="5"/>
+        <v>stockInfo[27]);</v>
+      </c>
+      <c r="W29" t="str">
+        <f t="shared" si="6"/>
+        <v>this.priceSellFive=new BigDecimal(stockInfo[27]);</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23" ht="15">
       <c r="A30" t="s">
         <v>233</v>
       </c>
@@ -2973,8 +3990,40 @@
       <c r="J30">
         <v>70.64</v>
       </c>
-    </row>
-    <row r="31" spans="1:10">
+      <c r="N30" t="s">
+        <v>234</v>
+      </c>
+      <c r="O30" t="s">
+        <v>236</v>
+      </c>
+      <c r="P30" t="s">
+        <v>265</v>
+      </c>
+      <c r="Q30" t="str">
+        <f t="shared" si="2"/>
+        <v>#{item.volumeSellFive},</v>
+      </c>
+      <c r="R30" t="str">
+        <f t="shared" si="4"/>
+        <v>#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.mark</v>
+      </c>
+      <c r="T30" t="str">
+        <f t="shared" si="3"/>
+        <v>this.volumeSellFive=</v>
+      </c>
+      <c r="U30" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="V30" t="str">
+        <f t="shared" si="5"/>
+        <v>stockInfo[28]);</v>
+      </c>
+      <c r="W30" t="str">
+        <f t="shared" si="6"/>
+        <v>this.volumeSellFive=new BigDecimal(stockInfo[28]);</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23" ht="15">
       <c r="A31" t="s">
         <v>134</v>
       </c>
@@ -3001,8 +4050,40 @@
       <c r="J31">
         <v>6</v>
       </c>
-    </row>
-    <row r="32" spans="1:10">
+      <c r="N31" t="s">
+        <v>234</v>
+      </c>
+      <c r="O31" t="s">
+        <v>237</v>
+      </c>
+      <c r="P31" t="s">
+        <v>266</v>
+      </c>
+      <c r="Q31" t="str">
+        <f t="shared" si="2"/>
+        <v>#{item.statisDate},</v>
+      </c>
+      <c r="R31" t="str">
+        <f t="shared" si="4"/>
+        <v>#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.mark</v>
+      </c>
+      <c r="T31" t="str">
+        <f t="shared" si="3"/>
+        <v>this.statisDate=</v>
+      </c>
+      <c r="U31" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="V31" t="str">
+        <f t="shared" si="5"/>
+        <v>stockInfo[30]);</v>
+      </c>
+      <c r="W31" t="str">
+        <f t="shared" si="6"/>
+        <v>this.statisDate=new BigDecimal(stockInfo[30]);</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23" ht="15">
       <c r="A32" t="s">
         <v>136</v>
       </c>
@@ -3029,8 +4110,40 @@
       <c r="J32">
         <v>70.650000000000006</v>
       </c>
-    </row>
-    <row r="33" spans="1:10">
+      <c r="N32" t="s">
+        <v>234</v>
+      </c>
+      <c r="O32" t="s">
+        <v>236</v>
+      </c>
+      <c r="P32" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q32" t="str">
+        <f t="shared" si="2"/>
+        <v>#{item.rise},</v>
+      </c>
+      <c r="R32" t="str">
+        <f t="shared" si="4"/>
+        <v>#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.mark</v>
+      </c>
+      <c r="T32" t="str">
+        <f t="shared" si="3"/>
+        <v>this.rise=</v>
+      </c>
+      <c r="U32" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="V32" t="str">
+        <f t="shared" si="5"/>
+        <v>stockInfo[31]);</v>
+      </c>
+      <c r="W32" t="str">
+        <f t="shared" si="6"/>
+        <v>this.rise=new BigDecimal(stockInfo[31]);</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23" ht="15">
       <c r="A33" t="s">
         <v>138</v>
       </c>
@@ -3057,8 +4170,40 @@
       <c r="J33">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="1:10">
+      <c r="N33" t="s">
+        <v>234</v>
+      </c>
+      <c r="O33" t="s">
+        <v>236</v>
+      </c>
+      <c r="P33" t="s">
+        <v>267</v>
+      </c>
+      <c r="Q33" t="str">
+        <f t="shared" si="2"/>
+        <v>#{item.riseRate},</v>
+      </c>
+      <c r="R33" t="str">
+        <f t="shared" si="4"/>
+        <v>#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.mark</v>
+      </c>
+      <c r="T33" t="str">
+        <f t="shared" si="3"/>
+        <v>this.riseRate=</v>
+      </c>
+      <c r="U33" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="V33" t="str">
+        <f t="shared" si="5"/>
+        <v>stockInfo[32]);</v>
+      </c>
+      <c r="W33" t="str">
+        <f t="shared" si="6"/>
+        <v>this.riseRate=new BigDecimal(stockInfo[32]);</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23" ht="15">
       <c r="A34" t="s">
         <v>140</v>
       </c>
@@ -3079,8 +4224,40 @@
       <c r="I34">
         <v>29</v>
       </c>
-    </row>
-    <row r="35" spans="1:10">
+      <c r="N34" t="s">
+        <v>234</v>
+      </c>
+      <c r="O34" t="s">
+        <v>236</v>
+      </c>
+      <c r="P34" t="s">
+        <v>268</v>
+      </c>
+      <c r="Q34" t="str">
+        <f t="shared" si="2"/>
+        <v>#{item.highestPrice},</v>
+      </c>
+      <c r="R34" t="str">
+        <f t="shared" si="4"/>
+        <v>#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.mark</v>
+      </c>
+      <c r="T34" t="str">
+        <f t="shared" si="3"/>
+        <v>this.highestPrice=</v>
+      </c>
+      <c r="U34" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="V34" t="str">
+        <f t="shared" si="5"/>
+        <v>stockInfo[33]);</v>
+      </c>
+      <c r="W34" t="str">
+        <f t="shared" si="6"/>
+        <v>this.highestPrice=new BigDecimal(stockInfo[33]);</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23" ht="15">
       <c r="A35" t="s">
         <v>142</v>
       </c>
@@ -3107,8 +4284,40 @@
       <c r="J35">
         <v>20200326113456</v>
       </c>
-    </row>
-    <row r="36" spans="1:10">
+      <c r="N35" t="s">
+        <v>234</v>
+      </c>
+      <c r="O35" t="s">
+        <v>236</v>
+      </c>
+      <c r="P35" t="s">
+        <v>269</v>
+      </c>
+      <c r="Q35" t="str">
+        <f t="shared" si="2"/>
+        <v>#{item.lowestPrice},</v>
+      </c>
+      <c r="R35" t="str">
+        <f t="shared" si="4"/>
+        <v>#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.mark</v>
+      </c>
+      <c r="T35" t="str">
+        <f t="shared" si="3"/>
+        <v>this.lowestPrice=</v>
+      </c>
+      <c r="U35" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="V35" t="str">
+        <f t="shared" si="5"/>
+        <v>stockInfo[34]);</v>
+      </c>
+      <c r="W35" t="str">
+        <f t="shared" si="6"/>
+        <v>this.lowestPrice=new BigDecimal(stockInfo[34]);</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23" ht="15">
       <c r="A36" t="s">
         <v>166</v>
       </c>
@@ -3135,8 +4344,40 @@
       <c r="J36">
         <v>0.23</v>
       </c>
-    </row>
-    <row r="37" spans="1:10">
+      <c r="N36" t="s">
+        <v>234</v>
+      </c>
+      <c r="O36" t="s">
+        <v>236</v>
+      </c>
+      <c r="P36" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q36" t="str">
+        <f t="shared" si="2"/>
+        <v>#{item.turnover},</v>
+      </c>
+      <c r="R36" t="str">
+        <f t="shared" si="4"/>
+        <v>#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.mark</v>
+      </c>
+      <c r="T36" t="str">
+        <f t="shared" si="3"/>
+        <v>this.turnover=</v>
+      </c>
+      <c r="U36" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="V36" t="str">
+        <f t="shared" si="5"/>
+        <v>stockInfo[36]);</v>
+      </c>
+      <c r="W36" t="str">
+        <f t="shared" si="6"/>
+        <v>this.turnover=new BigDecimal(stockInfo[36]);</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23" ht="15">
       <c r="A37" t="s">
         <v>167</v>
       </c>
@@ -3163,8 +4404,40 @@
       <c r="J37">
         <v>0.33</v>
       </c>
-    </row>
-    <row r="38" spans="1:10">
+      <c r="N37" t="s">
+        <v>234</v>
+      </c>
+      <c r="O37" t="s">
+        <v>236</v>
+      </c>
+      <c r="P37" t="s">
+        <v>270</v>
+      </c>
+      <c r="Q37" t="str">
+        <f t="shared" si="2"/>
+        <v>#{item.turnoverMoney},</v>
+      </c>
+      <c r="R37" t="str">
+        <f t="shared" si="4"/>
+        <v>#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.mark</v>
+      </c>
+      <c r="T37" t="str">
+        <f t="shared" si="3"/>
+        <v>this.turnoverMoney=</v>
+      </c>
+      <c r="U37" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="V37" t="str">
+        <f t="shared" si="5"/>
+        <v>stockInfo[37]);</v>
+      </c>
+      <c r="W37" t="str">
+        <f t="shared" si="6"/>
+        <v>this.turnoverMoney=new BigDecimal(stockInfo[37]);</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23" ht="15">
       <c r="A38" t="s">
         <v>168</v>
       </c>
@@ -3191,8 +4464,40 @@
       <c r="J38">
         <v>71</v>
       </c>
-    </row>
-    <row r="39" spans="1:10">
+      <c r="N38" t="s">
+        <v>234</v>
+      </c>
+      <c r="O38" t="s">
+        <v>236</v>
+      </c>
+      <c r="P38" t="s">
+        <v>271</v>
+      </c>
+      <c r="Q38" t="str">
+        <f t="shared" si="2"/>
+        <v>#{item.turnoverRate},</v>
+      </c>
+      <c r="R38" t="str">
+        <f t="shared" si="4"/>
+        <v>#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.mark</v>
+      </c>
+      <c r="T38" t="str">
+        <f t="shared" si="3"/>
+        <v>this.turnoverRate=</v>
+      </c>
+      <c r="U38" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="V38" t="str">
+        <f t="shared" si="5"/>
+        <v>stockInfo[38]);</v>
+      </c>
+      <c r="W38" t="str">
+        <f t="shared" si="6"/>
+        <v>this.turnoverRate=new BigDecimal(stockInfo[38]);</v>
+      </c>
+    </row>
+    <row r="39" spans="1:23" ht="15">
       <c r="A39" t="s">
         <v>150</v>
       </c>
@@ -3219,8 +4524,40 @@
       <c r="J39">
         <v>69.349999999999994</v>
       </c>
-    </row>
-    <row r="40" spans="1:10">
+      <c r="N39" t="s">
+        <v>234</v>
+      </c>
+      <c r="O39" t="s">
+        <v>236</v>
+      </c>
+      <c r="P39" t="s">
+        <v>272</v>
+      </c>
+      <c r="Q39" t="str">
+        <f t="shared" si="2"/>
+        <v>#{item.PERate},</v>
+      </c>
+      <c r="R39" t="str">
+        <f t="shared" si="4"/>
+        <v>#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.mark</v>
+      </c>
+      <c r="T39" t="str">
+        <f t="shared" si="3"/>
+        <v>this.PERate=</v>
+      </c>
+      <c r="U39" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="V39" t="str">
+        <f t="shared" si="5"/>
+        <v>stockInfo[39]);</v>
+      </c>
+      <c r="W39" t="str">
+        <f t="shared" si="6"/>
+        <v>this.PERate=new BigDecimal(stockInfo[39]);</v>
+      </c>
+    </row>
+    <row r="40" spans="1:23" ht="15">
       <c r="A40" t="s">
         <v>152</v>
       </c>
@@ -3244,8 +4581,40 @@
       <c r="J40" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:10">
+      <c r="N40" t="s">
+        <v>234</v>
+      </c>
+      <c r="O40" t="s">
+        <v>236</v>
+      </c>
+      <c r="P40" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q40" t="str">
+        <f t="shared" si="2"/>
+        <v>#{item.amplitude},</v>
+      </c>
+      <c r="R40" t="str">
+        <f t="shared" si="4"/>
+        <v>#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.mark</v>
+      </c>
+      <c r="T40" t="str">
+        <f t="shared" si="3"/>
+        <v>this.amplitude=</v>
+      </c>
+      <c r="U40" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="V40" t="str">
+        <f t="shared" si="5"/>
+        <v>stockInfo[43]);</v>
+      </c>
+      <c r="W40" t="str">
+        <f t="shared" si="6"/>
+        <v>this.amplitude=new BigDecimal(stockInfo[43]);</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23" ht="15">
       <c r="A41" t="s">
         <v>154</v>
       </c>
@@ -3272,8 +4641,40 @@
       <c r="J41">
         <v>344397</v>
       </c>
-    </row>
-    <row r="42" spans="1:10">
+      <c r="N41" t="s">
+        <v>234</v>
+      </c>
+      <c r="O41" t="s">
+        <v>236</v>
+      </c>
+      <c r="P41" t="s">
+        <v>273</v>
+      </c>
+      <c r="Q41" t="str">
+        <f t="shared" si="2"/>
+        <v>#{item.circulationMarket},</v>
+      </c>
+      <c r="R41" t="str">
+        <f t="shared" si="4"/>
+        <v>#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.mark</v>
+      </c>
+      <c r="T41" t="str">
+        <f t="shared" si="3"/>
+        <v>this.circulationMarket=</v>
+      </c>
+      <c r="U41" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="V41" t="str">
+        <f t="shared" si="5"/>
+        <v>stockInfo[44]);</v>
+      </c>
+      <c r="W41" t="str">
+        <f t="shared" si="6"/>
+        <v>this.circulationMarket=new BigDecimal(stockInfo[44]);</v>
+      </c>
+    </row>
+    <row r="42" spans="1:23" ht="15">
       <c r="A42" t="s">
         <v>156</v>
       </c>
@@ -3300,8 +4701,40 @@
       <c r="J42">
         <v>241610</v>
       </c>
-    </row>
-    <row r="43" spans="1:10">
+      <c r="N42" t="s">
+        <v>234</v>
+      </c>
+      <c r="O42" t="s">
+        <v>236</v>
+      </c>
+      <c r="P42" t="s">
+        <v>274</v>
+      </c>
+      <c r="Q42" t="str">
+        <f t="shared" si="2"/>
+        <v>#{item.totalMarket},</v>
+      </c>
+      <c r="R42" t="str">
+        <f t="shared" si="4"/>
+        <v>#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.mark</v>
+      </c>
+      <c r="T42" t="str">
+        <f t="shared" si="3"/>
+        <v>this.totalMarket=</v>
+      </c>
+      <c r="U42" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="V42" t="str">
+        <f t="shared" si="5"/>
+        <v>stockInfo[45]);</v>
+      </c>
+      <c r="W42" t="str">
+        <f t="shared" si="6"/>
+        <v>this.totalMarket=new BigDecimal(stockInfo[45]);</v>
+      </c>
+    </row>
+    <row r="43" spans="1:23" ht="15">
       <c r="A43" t="s">
         <v>158</v>
       </c>
@@ -3328,8 +4761,40 @@
       <c r="J43">
         <v>0.32</v>
       </c>
-    </row>
-    <row r="44" spans="1:10">
+      <c r="N43" t="s">
+        <v>234</v>
+      </c>
+      <c r="O43" t="s">
+        <v>236</v>
+      </c>
+      <c r="P43" t="s">
+        <v>275</v>
+      </c>
+      <c r="Q43" t="str">
+        <f t="shared" si="2"/>
+        <v>#{item.PBRate},</v>
+      </c>
+      <c r="R43" t="str">
+        <f t="shared" si="4"/>
+        <v>#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.mark</v>
+      </c>
+      <c r="T43" t="str">
+        <f t="shared" si="3"/>
+        <v>this.PBRate=</v>
+      </c>
+      <c r="U43" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="V43" t="str">
+        <f t="shared" si="5"/>
+        <v>stockInfo[46]);</v>
+      </c>
+      <c r="W43" t="str">
+        <f t="shared" si="6"/>
+        <v>this.PBRate=new BigDecimal(stockInfo[46]);</v>
+      </c>
+    </row>
+    <row r="44" spans="1:23" ht="15">
       <c r="A44" t="s">
         <v>160</v>
       </c>
@@ -3356,8 +4821,40 @@
       <c r="J44">
         <v>8.64</v>
       </c>
-    </row>
-    <row r="45" spans="1:10">
+      <c r="N44" t="s">
+        <v>234</v>
+      </c>
+      <c r="O44" t="s">
+        <v>236</v>
+      </c>
+      <c r="P44" t="s">
+        <v>276</v>
+      </c>
+      <c r="Q44" t="str">
+        <f t="shared" si="2"/>
+        <v>#{item.limitUp},</v>
+      </c>
+      <c r="R44" t="str">
+        <f t="shared" si="4"/>
+        <v>#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.mark</v>
+      </c>
+      <c r="T44" t="str">
+        <f t="shared" si="3"/>
+        <v>this.limitUp=</v>
+      </c>
+      <c r="U44" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="V44" t="str">
+        <f t="shared" si="5"/>
+        <v>stockInfo[47]);</v>
+      </c>
+      <c r="W44" t="str">
+        <f t="shared" si="6"/>
+        <v>this.limitUp=new BigDecimal(stockInfo[47]);</v>
+      </c>
+    </row>
+    <row r="45" spans="1:23" ht="15">
       <c r="A45" t="s">
         <v>162</v>
       </c>
@@ -3378,8 +4875,40 @@
       <c r="I45">
         <v>40</v>
       </c>
-    </row>
-    <row r="46" spans="1:10">
+      <c r="N45" t="s">
+        <v>234</v>
+      </c>
+      <c r="O45" t="s">
+        <v>236</v>
+      </c>
+      <c r="P45" t="s">
+        <v>238</v>
+      </c>
+      <c r="Q45" t="str">
+        <f t="shared" si="2"/>
+        <v>#{item.limitDown},</v>
+      </c>
+      <c r="R45" t="str">
+        <f t="shared" si="4"/>
+        <v>#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.mark</v>
+      </c>
+      <c r="T45" t="str">
+        <f t="shared" si="3"/>
+        <v>this.limitDown=</v>
+      </c>
+      <c r="U45" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="V45" t="str">
+        <f t="shared" si="5"/>
+        <v>stockInfo[48]);</v>
+      </c>
+      <c r="W45" t="str">
+        <f t="shared" si="6"/>
+        <v>this.limitDown=new BigDecimal(stockInfo[48]);</v>
+      </c>
+    </row>
+    <row r="46" spans="1:23">
       <c r="I46">
         <v>41</v>
       </c>
@@ -3387,7 +4916,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="47" spans="1:10">
+    <row r="47" spans="1:23">
       <c r="I47">
         <v>42</v>
       </c>
@@ -3395,7 +4924,7 @@
         <v>69.349999999999994</v>
       </c>
     </row>
-    <row r="48" spans="1:10">
+    <row r="48" spans="1:23">
       <c r="H48" t="s">
         <v>152</v>
       </c>
@@ -3464,6 +4993,7 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/工作簿1.xlsx
+++ b/工作簿1.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="516" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="595" uniqueCount="329">
   <si>
     <t>70.58/344397/2416096674</t>
   </si>
@@ -957,6 +957,174 @@
   </si>
   <si>
     <t>#{item.isBackground}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 不明</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 名字</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 代码</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 现价</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 昨收</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 成交量（手）</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 外盘</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 内盘</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 买一</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 买一量（手）</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 买二 -?买五</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 卖一</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 卖一量</t>
+  </si>
+  <si>
+    <t>21-28</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 卖二 -?卖五</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 最近逐笔成交</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 时间</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 涨跌</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 涨跌%</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 最高</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 最低</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 价格/成交量（手）/成交额</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 成交额（万）</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 换手率</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 市盈率</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> /</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 振幅</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 流通市值</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 总市值</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 市净率</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 涨停价</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 跌停价</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 买二</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 买二量（手）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 买三</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 买三量（手）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 买四</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 买四量（手）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 买五</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 买五量（手）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 卖二</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 卖二量</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 卖三</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 卖三量</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 卖四</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 卖四量</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 卖五</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 卖一</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 卖五量</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 卖一量</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1016,7 +1184,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1030,6 +1198,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2335,2658 +2506,3492 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W53"/>
+  <dimension ref="A1:AB53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B28" workbookViewId="0">
-      <selection activeCell="R48" sqref="R48"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="29.125" customWidth="1"/>
-    <col min="3" max="3" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.5" customWidth="1"/>
-    <col min="16" max="19" width="14.125" customWidth="1"/>
-    <col min="20" max="20" width="18.875" customWidth="1"/>
-    <col min="21" max="21" width="16.875" customWidth="1"/>
+    <col min="4" max="4" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.5" customWidth="1"/>
+    <col min="18" max="21" width="14.125" customWidth="1"/>
+    <col min="22" max="22" width="18.875" customWidth="1"/>
+    <col min="23" max="23" width="25.5" customWidth="1"/>
+    <col min="24" max="24" width="23.375" customWidth="1"/>
+    <col min="25" max="25" width="62.25" customWidth="1"/>
+    <col min="26" max="26" width="24.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23">
-      <c r="Q1" t="s">
+    <row r="1" spans="1:28">
+      <c r="S1" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="2" spans="1:23">
+    <row r="2" spans="1:28">
       <c r="A2" t="s">
         <v>164</v>
       </c>
-      <c r="D2" t="str">
+      <c r="E2" t="str">
         <f>A2&amp;";"</f>
         <v>market_city;</v>
       </c>
-      <c r="F2" t="str">
+      <c r="G2" t="str">
         <f>"`"&amp;A2&amp;"`"&amp;","</f>
         <v>`market_city`,</v>
       </c>
-      <c r="N2" t="s">
+      <c r="P2" t="s">
         <v>234</v>
       </c>
-      <c r="O2" t="s">
+      <c r="Q2" t="s">
         <v>235</v>
       </c>
-      <c r="P2" t="s">
+      <c r="R2" t="s">
         <v>239</v>
       </c>
-      <c r="Q2" t="str">
-        <f>"#{item."&amp;P2&amp;"}"&amp;","</f>
+      <c r="S2" t="str">
+        <f>"#{item."&amp;R2&amp;"}"&amp;","</f>
         <v>#{item.marketCity},</v>
       </c>
-      <c r="R2" t="str">
-        <f>Q2</f>
+      <c r="T2" t="str">
+        <f>S2</f>
         <v>#{item.marketCity},</v>
       </c>
-      <c r="T2" t="str">
-        <f>"this."&amp;P2&amp;"="</f>
+      <c r="V2" t="str">
+        <f>"this."&amp;R2&amp;"="</f>
         <v>this.marketCity=</v>
       </c>
     </row>
-    <row r="3" spans="1:23">
+    <row r="3" spans="1:28">
       <c r="A3" t="s">
         <v>83</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
-      <c r="C3">
+      <c r="C3" t="s">
+        <v>280</v>
+      </c>
+      <c r="D3">
         <v>601318</v>
       </c>
-      <c r="D3" t="str">
-        <f t="shared" ref="D3:D45" si="0">A3&amp;";"</f>
+      <c r="E3" t="str">
+        <f t="shared" ref="E3:E45" si="0">A3&amp;";"</f>
         <v>stock_name;</v>
       </c>
-      <c r="F3" t="str">
-        <f t="shared" ref="F3:F45" si="1">"`"&amp;A3&amp;"`"&amp;","</f>
+      <c r="G3" t="str">
+        <f t="shared" ref="G3:G45" si="1">"`"&amp;A3&amp;"`"&amp;","</f>
         <v>`stock_name`,</v>
       </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
       <c r="N3" t="s">
+        <v>279</v>
+      </c>
+      <c r="P3" t="s">
         <v>234</v>
       </c>
-      <c r="O3" t="s">
+      <c r="Q3" t="s">
         <v>235</v>
       </c>
-      <c r="P3" t="s">
+      <c r="R3" t="s">
         <v>240</v>
       </c>
-      <c r="Q3" t="str">
-        <f t="shared" ref="Q3:Q45" si="2">"#{item."&amp;P3&amp;"}"&amp;","</f>
+      <c r="S3" t="str">
+        <f t="shared" ref="S3:S45" si="2">"#{item."&amp;R3&amp;"}"&amp;","</f>
         <v>#{item.stockName},</v>
       </c>
-      <c r="R3" t="str">
-        <f>R2&amp;R2</f>
+      <c r="T3" t="str">
+        <f>T2&amp;T2</f>
         <v>#{item.marketCity},#{item.marketCity},</v>
       </c>
-      <c r="T3" t="str">
-        <f t="shared" ref="T3:T45" si="3">"this."&amp;P3&amp;"="</f>
+      <c r="V3" t="str">
+        <f t="shared" ref="V3:V45" si="3">"this."&amp;R3&amp;"="</f>
         <v>this.stockName=</v>
       </c>
     </row>
-    <row r="4" spans="1:23">
+    <row r="4" spans="1:28">
       <c r="A4" t="s">
         <v>82</v>
       </c>
       <c r="B4">
         <v>2</v>
       </c>
-      <c r="C4">
+      <c r="C4" t="s">
+        <v>281</v>
+      </c>
+      <c r="D4">
         <v>601318</v>
       </c>
-      <c r="D4" t="str">
+      <c r="E4" t="str">
         <f t="shared" si="0"/>
         <v>stock_id;</v>
       </c>
-      <c r="F4" t="str">
+      <c r="G4" t="str">
         <f t="shared" si="1"/>
         <v>`stock_id`,</v>
       </c>
+      <c r="M4">
+        <v>1</v>
+      </c>
       <c r="N4" t="s">
+        <v>280</v>
+      </c>
+      <c r="P4" t="s">
         <v>234</v>
       </c>
-      <c r="O4" t="s">
+      <c r="Q4" t="s">
         <v>235</v>
       </c>
-      <c r="P4" t="s">
+      <c r="R4" t="s">
         <v>241</v>
       </c>
-      <c r="Q4" t="str">
+      <c r="S4" t="str">
         <f t="shared" si="2"/>
         <v>#{item.stockId},</v>
       </c>
-      <c r="R4" t="str">
-        <f t="shared" ref="R4:R45" si="4">R3&amp;R3</f>
+      <c r="T4" t="str">
+        <f t="shared" ref="T4:T45" si="4">T3&amp;T3</f>
         <v>#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},</v>
       </c>
-      <c r="T4" t="str">
+      <c r="V4" t="str">
         <f t="shared" si="3"/>
         <v>this.stockId=</v>
       </c>
     </row>
-    <row r="5" spans="1:23" ht="15">
+    <row r="5" spans="1:28" ht="15">
       <c r="A5" t="s">
         <v>86</v>
       </c>
       <c r="B5">
         <v>3</v>
       </c>
-      <c r="C5">
+      <c r="C5" t="s">
+        <v>282</v>
+      </c>
+      <c r="D5">
         <v>70.58</v>
       </c>
-      <c r="D5" t="str">
+      <c r="E5" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">
 present_price;</v>
       </c>
-      <c r="F5" t="str">
+      <c r="G5" t="str">
         <f t="shared" si="1"/>
         <v>`
 present_price`,</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>164</v>
       </c>
+      <c r="M5">
+        <v>2</v>
+      </c>
       <c r="N5" t="s">
+        <v>281</v>
+      </c>
+      <c r="P5" t="s">
         <v>234</v>
       </c>
-      <c r="O5" t="s">
+      <c r="Q5" t="s">
         <v>236</v>
       </c>
-      <c r="P5" t="s">
+      <c r="R5" t="s">
         <v>242</v>
       </c>
-      <c r="Q5" t="str">
+      <c r="S5" t="str">
         <f t="shared" si="2"/>
         <v>#{item.presentPrice},</v>
       </c>
-      <c r="R5" t="str">
+      <c r="T5" t="str">
         <f t="shared" si="4"/>
         <v>#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},</v>
       </c>
-      <c r="T5" t="str">
+      <c r="V5" t="str">
         <f t="shared" si="3"/>
         <v>this.presentPrice=</v>
       </c>
-      <c r="U5" s="4" t="s">
+      <c r="W5" s="4" t="s">
         <v>277</v>
       </c>
-      <c r="V5" t="str">
+      <c r="X5" t="str">
         <f>"stockInfo"&amp;"["&amp;B5&amp;"]"&amp;")"&amp;";"</f>
         <v>stockInfo[3]);</v>
       </c>
-      <c r="W5" t="str">
-        <f>T5&amp;U5&amp;V5</f>
+      <c r="Y5" t="str">
+        <f>V5&amp;W5&amp;X5</f>
         <v>this.presentPrice=new BigDecimal(stockInfo[3]);</v>
       </c>
-    </row>
-    <row r="6" spans="1:23" ht="15">
+      <c r="Z5" t="str">
+        <f>"isEmpty("&amp;"stockInfo"&amp;"["&amp;B5&amp;"]"&amp;")"&amp;"?"</f>
+        <v>isEmpty(stockInfo[3])?</v>
+      </c>
+      <c r="AA5" t="str">
+        <f>"null:"</f>
+        <v>null:</v>
+      </c>
+      <c r="AB5" t="str">
+        <f>V5&amp;Z5&amp;AA5&amp;W5&amp;X5</f>
+        <v>this.presentPrice=isEmpty(stockInfo[3])?null:new BigDecimal(stockInfo[3]);</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" ht="15">
       <c r="A6" t="s">
         <v>88</v>
       </c>
       <c r="B6">
         <v>4</v>
       </c>
-      <c r="C6">
+      <c r="C6" t="s">
+        <v>283</v>
+      </c>
+      <c r="D6">
         <v>70.349999999999994</v>
       </c>
-      <c r="D6" t="str">
+      <c r="E6" t="str">
         <f t="shared" si="0"/>
         <v>yesterday_price;</v>
       </c>
-      <c r="F6" t="str">
+      <c r="G6" t="str">
         <f t="shared" si="1"/>
         <v>`yesterday_price`,</v>
       </c>
-      <c r="H6" t="s">
+      <c r="I6" t="s">
         <v>83</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>1</v>
       </c>
+      <c r="M6">
+        <v>3</v>
+      </c>
       <c r="N6" t="s">
+        <v>282</v>
+      </c>
+      <c r="P6" t="s">
         <v>234</v>
       </c>
-      <c r="O6" t="s">
+      <c r="Q6" t="s">
         <v>236</v>
       </c>
-      <c r="P6" t="s">
+      <c r="R6" t="s">
         <v>243</v>
       </c>
-      <c r="Q6" t="str">
+      <c r="S6" t="str">
         <f t="shared" si="2"/>
         <v>#{item.yesterdayPrice},</v>
       </c>
-      <c r="R6" t="str">
+      <c r="T6" t="str">
         <f t="shared" si="4"/>
         <v>#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},</v>
       </c>
-      <c r="T6" t="str">
+      <c r="V6" t="str">
         <f t="shared" si="3"/>
         <v>this.yesterdayPrice=</v>
       </c>
-      <c r="U6" s="4" t="s">
+      <c r="W6" s="4" t="s">
         <v>277</v>
       </c>
-      <c r="V6" t="str">
-        <f t="shared" ref="V6:V45" si="5">"stockInfo"&amp;"["&amp;B6&amp;"]"&amp;")"&amp;";"</f>
+      <c r="X6" t="str">
+        <f t="shared" ref="X6:X45" si="5">"stockInfo"&amp;"["&amp;B6&amp;"]"&amp;")"&amp;";"</f>
         <v>stockInfo[4]);</v>
       </c>
-      <c r="W6" t="str">
-        <f t="shared" ref="W6:W45" si="6">T6&amp;U6&amp;V6</f>
+      <c r="Y6" t="str">
+        <f t="shared" ref="Y6:Y45" si="6">V6&amp;W6&amp;X6</f>
         <v>this.yesterdayPrice=new BigDecimal(stockInfo[4]);</v>
       </c>
-    </row>
-    <row r="7" spans="1:23" ht="15">
+      <c r="Z6" t="str">
+        <f t="shared" ref="Z6:Z45" si="7">"isEmpty("&amp;"stockInfo"&amp;"["&amp;B6&amp;"]"&amp;")"&amp;"?"</f>
+        <v>isEmpty(stockInfo[4])?</v>
+      </c>
+      <c r="AA6" t="str">
+        <f t="shared" ref="AA6:AA45" si="8">"null:"</f>
+        <v>null:</v>
+      </c>
+      <c r="AB6" t="str">
+        <f t="shared" ref="AB6:AB45" si="9">V6&amp;Z6&amp;AA6&amp;W6&amp;X6</f>
+        <v>this.yesterdayPrice=isEmpty(stockInfo[4])?null:new BigDecimal(stockInfo[4]);</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" ht="15">
       <c r="A7" t="s">
         <v>90</v>
       </c>
       <c r="B7">
         <v>5</v>
       </c>
-      <c r="C7">
+      <c r="C7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D7">
         <v>69.48</v>
       </c>
-      <c r="D7" t="str">
+      <c r="E7" t="str">
         <f t="shared" si="0"/>
         <v>today_price;</v>
       </c>
-      <c r="F7" t="str">
+      <c r="G7" t="str">
         <f t="shared" si="1"/>
         <v>`today_price`,</v>
       </c>
-      <c r="H7" t="s">
+      <c r="I7" t="s">
         <v>82</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>2</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>601318</v>
       </c>
+      <c r="M7">
+        <v>4</v>
+      </c>
       <c r="N7" t="s">
+        <v>283</v>
+      </c>
+      <c r="P7" t="s">
         <v>234</v>
       </c>
-      <c r="O7" t="s">
+      <c r="Q7" t="s">
         <v>236</v>
       </c>
-      <c r="P7" t="s">
+      <c r="R7" t="s">
         <v>244</v>
       </c>
-      <c r="Q7" t="str">
+      <c r="S7" t="str">
         <f t="shared" si="2"/>
         <v>#{item.todayPrice},</v>
       </c>
-      <c r="R7" t="str">
+      <c r="T7" t="str">
         <f t="shared" si="4"/>
         <v>#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},</v>
       </c>
-      <c r="T7" t="str">
+      <c r="V7" t="str">
         <f t="shared" si="3"/>
         <v>this.todayPrice=</v>
       </c>
-      <c r="U7" s="4" t="s">
+      <c r="W7" s="4" t="s">
         <v>277</v>
       </c>
-      <c r="V7" t="str">
+      <c r="X7" t="str">
         <f t="shared" si="5"/>
         <v>stockInfo[5]);</v>
       </c>
-      <c r="W7" t="str">
+      <c r="Y7" t="str">
         <f t="shared" si="6"/>
         <v>this.todayPrice=new BigDecimal(stockInfo[5]);</v>
       </c>
-    </row>
-    <row r="8" spans="1:23" ht="15">
+      <c r="Z7" t="str">
+        <f t="shared" si="7"/>
+        <v>isEmpty(stockInfo[5])?</v>
+      </c>
+      <c r="AA7" t="str">
+        <f t="shared" si="8"/>
+        <v>null:</v>
+      </c>
+      <c r="AB7" t="str">
+        <f t="shared" si="9"/>
+        <v>this.todayPrice=isEmpty(stockInfo[5])?null:new BigDecimal(stockInfo[5]);</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" ht="15">
       <c r="A8" t="s">
         <v>92</v>
       </c>
       <c r="B8">
         <v>6</v>
       </c>
-      <c r="C8">
+      <c r="C8" t="s">
+        <v>284</v>
+      </c>
+      <c r="D8">
         <v>344397</v>
       </c>
-      <c r="D8" t="str">
+      <c r="E8" t="str">
         <f t="shared" si="0"/>
         <v>turnover_volume;</v>
       </c>
-      <c r="F8" t="str">
+      <c r="G8" t="str">
         <f t="shared" si="1"/>
         <v>`turnover_volume`,</v>
       </c>
-      <c r="H8" t="s">
+      <c r="I8" t="s">
         <v>86</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>3</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>70.58</v>
       </c>
+      <c r="M8">
+        <v>5</v>
+      </c>
       <c r="N8" t="s">
+        <v>49</v>
+      </c>
+      <c r="P8" t="s">
         <v>234</v>
       </c>
-      <c r="O8" t="s">
+      <c r="Q8" t="s">
         <v>236</v>
       </c>
-      <c r="P8" t="s">
+      <c r="R8" t="s">
         <v>245</v>
       </c>
-      <c r="Q8" t="str">
+      <c r="S8" t="str">
         <f t="shared" si="2"/>
         <v>#{item.turnoverVolume},</v>
       </c>
-      <c r="R8" t="str">
+      <c r="T8" t="str">
         <f t="shared" si="4"/>
         <v>#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},</v>
       </c>
-      <c r="T8" t="str">
+      <c r="V8" t="str">
         <f t="shared" si="3"/>
         <v>this.turnoverVolume=</v>
       </c>
-      <c r="U8" s="4" t="s">
+      <c r="W8" s="4" t="s">
         <v>277</v>
       </c>
-      <c r="V8" t="str">
+      <c r="X8" t="str">
         <f t="shared" si="5"/>
         <v>stockInfo[6]);</v>
       </c>
-      <c r="W8" t="str">
+      <c r="Y8" t="str">
         <f t="shared" si="6"/>
         <v>this.turnoverVolume=new BigDecimal(stockInfo[6]);</v>
       </c>
-    </row>
-    <row r="9" spans="1:23" ht="15">
+      <c r="Z8" t="str">
+        <f t="shared" si="7"/>
+        <v>isEmpty(stockInfo[6])?</v>
+      </c>
+      <c r="AA8" t="str">
+        <f t="shared" si="8"/>
+        <v>null:</v>
+      </c>
+      <c r="AB8" t="str">
+        <f t="shared" si="9"/>
+        <v>this.turnoverVolume=isEmpty(stockInfo[6])?null:new BigDecimal(stockInfo[6]);</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" ht="15">
       <c r="A9" t="s">
         <v>94</v>
       </c>
       <c r="B9">
         <v>7</v>
       </c>
-      <c r="C9">
+      <c r="C9" t="s">
+        <v>285</v>
+      </c>
+      <c r="D9">
         <v>187225</v>
       </c>
-      <c r="D9" t="str">
+      <c r="E9" t="str">
         <f t="shared" si="0"/>
         <v>outside;</v>
       </c>
-      <c r="F9" t="str">
+      <c r="G9" t="str">
         <f t="shared" si="1"/>
         <v>`outside`,</v>
       </c>
-      <c r="H9" t="s">
+      <c r="I9" t="s">
         <v>88</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>4</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>70.349999999999994</v>
       </c>
+      <c r="M9">
+        <v>6</v>
+      </c>
       <c r="N9" t="s">
+        <v>284</v>
+      </c>
+      <c r="P9" t="s">
         <v>234</v>
       </c>
-      <c r="O9" t="s">
+      <c r="Q9" t="s">
         <v>236</v>
       </c>
-      <c r="P9" t="s">
+      <c r="R9" t="s">
         <v>94</v>
       </c>
-      <c r="Q9" t="str">
+      <c r="S9" t="str">
         <f t="shared" si="2"/>
         <v>#{item.outside},</v>
       </c>
-      <c r="R9" t="str">
+      <c r="T9" t="str">
         <f t="shared" si="4"/>
         <v>#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},</v>
       </c>
-      <c r="T9" t="str">
+      <c r="V9" t="str">
         <f t="shared" si="3"/>
         <v>this.outside=</v>
       </c>
-      <c r="U9" s="4" t="s">
+      <c r="W9" s="4" t="s">
         <v>277</v>
       </c>
-      <c r="V9" t="str">
+      <c r="X9" t="str">
         <f t="shared" si="5"/>
         <v>stockInfo[7]);</v>
       </c>
-      <c r="W9" t="str">
+      <c r="Y9" t="str">
         <f t="shared" si="6"/>
         <v>this.outside=new BigDecimal(stockInfo[7]);</v>
       </c>
-    </row>
-    <row r="10" spans="1:23" ht="15">
+      <c r="Z9" t="str">
+        <f t="shared" si="7"/>
+        <v>isEmpty(stockInfo[7])?</v>
+      </c>
+      <c r="AA9" t="str">
+        <f t="shared" si="8"/>
+        <v>null:</v>
+      </c>
+      <c r="AB9" t="str">
+        <f t="shared" si="9"/>
+        <v>this.outside=isEmpty(stockInfo[7])?null:new BigDecimal(stockInfo[7]);</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" ht="15">
       <c r="A10" t="s">
         <v>96</v>
       </c>
       <c r="B10">
         <v>8</v>
       </c>
-      <c r="C10">
+      <c r="C10" t="s">
+        <v>286</v>
+      </c>
+      <c r="D10">
         <v>157172</v>
       </c>
-      <c r="D10" t="str">
+      <c r="E10" t="str">
         <f t="shared" si="0"/>
         <v>inside;</v>
       </c>
-      <c r="F10" t="str">
+      <c r="G10" t="str">
         <f t="shared" si="1"/>
         <v>`inside`,</v>
       </c>
-      <c r="H10" t="s">
+      <c r="I10" t="s">
         <v>90</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>5</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>69.48</v>
       </c>
+      <c r="M10">
+        <v>7</v>
+      </c>
       <c r="N10" t="s">
+        <v>285</v>
+      </c>
+      <c r="P10" t="s">
         <v>234</v>
       </c>
-      <c r="O10" t="s">
+      <c r="Q10" t="s">
         <v>236</v>
       </c>
-      <c r="P10" t="s">
+      <c r="R10" t="s">
         <v>96</v>
       </c>
-      <c r="Q10" t="str">
+      <c r="S10" t="str">
         <f t="shared" si="2"/>
         <v>#{item.inside},</v>
       </c>
-      <c r="R10" t="str">
+      <c r="T10" t="str">
         <f t="shared" si="4"/>
         <v>#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},</v>
       </c>
-      <c r="T10" t="str">
+      <c r="V10" t="str">
         <f t="shared" si="3"/>
         <v>this.inside=</v>
       </c>
-      <c r="U10" s="4" t="s">
+      <c r="W10" s="4" t="s">
         <v>277</v>
       </c>
-      <c r="V10" t="str">
+      <c r="X10" t="str">
         <f t="shared" si="5"/>
         <v>stockInfo[8]);</v>
       </c>
-      <c r="W10" t="str">
+      <c r="Y10" t="str">
         <f t="shared" si="6"/>
         <v>this.inside=new BigDecimal(stockInfo[8]);</v>
       </c>
-    </row>
-    <row r="11" spans="1:23" ht="15">
+      <c r="Z10" t="str">
+        <f t="shared" si="7"/>
+        <v>isEmpty(stockInfo[8])?</v>
+      </c>
+      <c r="AA10" t="str">
+        <f t="shared" si="8"/>
+        <v>null:</v>
+      </c>
+      <c r="AB10" t="str">
+        <f t="shared" si="9"/>
+        <v>this.inside=isEmpty(stockInfo[8])?null:new BigDecimal(stockInfo[8]);</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" ht="15">
       <c r="A11" t="s">
         <v>214</v>
       </c>
       <c r="B11">
         <v>9</v>
       </c>
-      <c r="C11">
+      <c r="C11" t="s">
+        <v>287</v>
+      </c>
+      <c r="D11">
         <v>70.58</v>
       </c>
-      <c r="D11" t="str">
+      <c r="E11" t="str">
         <f t="shared" si="0"/>
         <v>price_buy_one;</v>
       </c>
-      <c r="F11" t="str">
+      <c r="G11" t="str">
         <f t="shared" si="1"/>
         <v>`price_buy_one`,</v>
       </c>
-      <c r="H11" t="s">
+      <c r="I11" t="s">
         <v>92</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>6</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>344397</v>
       </c>
+      <c r="M11">
+        <v>8</v>
+      </c>
       <c r="N11" t="s">
+        <v>286</v>
+      </c>
+      <c r="P11" t="s">
         <v>234</v>
       </c>
-      <c r="O11" t="s">
+      <c r="Q11" t="s">
         <v>236</v>
       </c>
-      <c r="P11" t="s">
+      <c r="R11" t="s">
         <v>246</v>
       </c>
-      <c r="Q11" t="str">
+      <c r="S11" t="str">
         <f t="shared" si="2"/>
         <v>#{item.priceBuyOne},</v>
       </c>
-      <c r="R11" t="str">
+      <c r="T11" t="str">
         <f t="shared" si="4"/>
         <v>#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},</v>
       </c>
-      <c r="T11" t="str">
+      <c r="V11" t="str">
         <f t="shared" si="3"/>
         <v>this.priceBuyOne=</v>
       </c>
-      <c r="U11" s="4" t="s">
+      <c r="W11" s="4" t="s">
         <v>277</v>
       </c>
-      <c r="V11" t="str">
+      <c r="X11" t="str">
         <f t="shared" si="5"/>
         <v>stockInfo[9]);</v>
       </c>
-      <c r="W11" t="str">
+      <c r="Y11" t="str">
         <f t="shared" si="6"/>
         <v>this.priceBuyOne=new BigDecimal(stockInfo[9]);</v>
       </c>
-    </row>
-    <row r="12" spans="1:23" ht="15">
+      <c r="Z11" t="str">
+        <f t="shared" si="7"/>
+        <v>isEmpty(stockInfo[9])?</v>
+      </c>
+      <c r="AA11" t="str">
+        <f t="shared" si="8"/>
+        <v>null:</v>
+      </c>
+      <c r="AB11" t="str">
+        <f t="shared" si="9"/>
+        <v>this.priceBuyOne=isEmpty(stockInfo[9])?null:new BigDecimal(stockInfo[9]);</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28" ht="15">
       <c r="A12" t="s">
         <v>215</v>
       </c>
       <c r="B12">
         <v>10</v>
       </c>
-      <c r="C12">
+      <c r="C12" t="s">
+        <v>288</v>
+      </c>
+      <c r="D12">
         <v>24</v>
       </c>
-      <c r="D12" t="str">
+      <c r="E12" t="str">
         <f t="shared" si="0"/>
         <v>volume_buy_one;</v>
       </c>
-      <c r="F12" t="str">
+      <c r="G12" t="str">
         <f t="shared" si="1"/>
         <v>`volume_buy_one`,</v>
       </c>
-      <c r="H12" t="s">
+      <c r="I12" t="s">
         <v>94</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>7</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>187225</v>
       </c>
+      <c r="M12">
+        <v>9</v>
+      </c>
       <c r="N12" t="s">
+        <v>287</v>
+      </c>
+      <c r="P12" t="s">
         <v>234</v>
       </c>
-      <c r="O12" t="s">
+      <c r="Q12" t="s">
         <v>236</v>
       </c>
-      <c r="P12" t="s">
+      <c r="R12" t="s">
         <v>247</v>
       </c>
-      <c r="Q12" t="str">
+      <c r="S12" t="str">
         <f t="shared" si="2"/>
         <v>#{item.volumeBuyOne},</v>
       </c>
-      <c r="R12" t="str">
+      <c r="T12" t="str">
         <f t="shared" si="4"/>
         <v>#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},</v>
       </c>
-      <c r="T12" t="str">
+      <c r="V12" t="str">
         <f t="shared" si="3"/>
         <v>this.volumeBuyOne=</v>
       </c>
-      <c r="U12" s="4" t="s">
+      <c r="W12" s="4" t="s">
         <v>277</v>
       </c>
-      <c r="V12" t="str">
+      <c r="X12" t="str">
         <f t="shared" si="5"/>
         <v>stockInfo[10]);</v>
       </c>
-      <c r="W12" t="str">
+      <c r="Y12" t="str">
         <f t="shared" si="6"/>
         <v>this.volumeBuyOne=new BigDecimal(stockInfo[10]);</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" ht="15">
+      <c r="Z12" t="str">
+        <f t="shared" si="7"/>
+        <v>isEmpty(stockInfo[10])?</v>
+      </c>
+      <c r="AA12" t="str">
+        <f t="shared" si="8"/>
+        <v>null:</v>
+      </c>
+      <c r="AB12" t="str">
+        <f t="shared" si="9"/>
+        <v>this.volumeBuyOne=isEmpty(stockInfo[10])?null:new BigDecimal(stockInfo[10]);</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" ht="15">
       <c r="A13" t="s">
         <v>216</v>
       </c>
       <c r="B13">
         <v>11</v>
       </c>
-      <c r="C13">
+      <c r="C13" t="s">
+        <v>311</v>
+      </c>
+      <c r="D13">
         <v>70.569999999999993</v>
       </c>
-      <c r="D13" t="str">
+      <c r="E13" t="str">
         <f t="shared" si="0"/>
         <v>price_buy_two;</v>
       </c>
-      <c r="F13" t="str">
+      <c r="G13" t="str">
         <f t="shared" si="1"/>
         <v>`price_buy_two`,</v>
       </c>
-      <c r="H13" t="s">
+      <c r="I13" t="s">
         <v>96</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>8</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>157172</v>
       </c>
+      <c r="M13">
+        <v>10</v>
+      </c>
       <c r="N13" t="s">
+        <v>288</v>
+      </c>
+      <c r="P13" t="s">
         <v>234</v>
       </c>
-      <c r="O13" t="s">
+      <c r="Q13" t="s">
         <v>236</v>
       </c>
-      <c r="P13" t="s">
+      <c r="R13" t="s">
         <v>248</v>
       </c>
-      <c r="Q13" t="str">
+      <c r="S13" t="str">
         <f t="shared" si="2"/>
         <v>#{item.priceBuyTwo},</v>
       </c>
-      <c r="R13" t="str">
+      <c r="T13" t="str">
         <f t="shared" si="4"/>
         <v>#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.mark</v>
       </c>
-      <c r="T13" t="str">
+      <c r="V13" t="str">
         <f t="shared" si="3"/>
         <v>this.priceBuyTwo=</v>
       </c>
-      <c r="U13" s="4" t="s">
+      <c r="W13" s="4" t="s">
         <v>277</v>
       </c>
-      <c r="V13" t="str">
+      <c r="X13" t="str">
         <f t="shared" si="5"/>
         <v>stockInfo[11]);</v>
       </c>
-      <c r="W13" t="str">
+      <c r="Y13" t="str">
         <f t="shared" si="6"/>
         <v>this.priceBuyTwo=new BigDecimal(stockInfo[11]);</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" ht="15">
+      <c r="Z13" t="str">
+        <f t="shared" si="7"/>
+        <v>isEmpty(stockInfo[11])?</v>
+      </c>
+      <c r="AA13" t="str">
+        <f t="shared" si="8"/>
+        <v>null:</v>
+      </c>
+      <c r="AB13" t="str">
+        <f t="shared" si="9"/>
+        <v>this.priceBuyTwo=isEmpty(stockInfo[11])?null:new BigDecimal(stockInfo[11]);</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" ht="15">
       <c r="A14" t="s">
         <v>217</v>
       </c>
       <c r="B14">
         <v>12</v>
       </c>
-      <c r="C14">
+      <c r="C14" t="s">
+        <v>312</v>
+      </c>
+      <c r="D14">
         <v>3</v>
       </c>
-      <c r="D14" t="str">
+      <c r="E14" t="str">
         <f t="shared" si="0"/>
         <v>volume_buy_two;</v>
       </c>
-      <c r="F14" t="str">
+      <c r="G14" t="str">
         <f t="shared" si="1"/>
         <v>`volume_buy_two`,</v>
       </c>
-      <c r="H14" t="s">
+      <c r="I14" t="s">
         <v>98</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>9</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>70.58</v>
       </c>
+      <c r="M14" s="5">
+        <v>44153</v>
+      </c>
       <c r="N14" t="s">
+        <v>289</v>
+      </c>
+      <c r="P14" t="s">
         <v>234</v>
       </c>
-      <c r="O14" t="s">
+      <c r="Q14" t="s">
         <v>236</v>
       </c>
-      <c r="P14" t="s">
+      <c r="R14" t="s">
         <v>249</v>
       </c>
-      <c r="Q14" t="str">
+      <c r="S14" t="str">
         <f t="shared" si="2"/>
         <v>#{item.volumeBuyTwo},</v>
       </c>
-      <c r="R14" t="str">
+      <c r="T14" t="str">
         <f t="shared" si="4"/>
         <v>#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.mark</v>
       </c>
-      <c r="T14" t="str">
+      <c r="V14" t="str">
         <f t="shared" si="3"/>
         <v>this.volumeBuyTwo=</v>
       </c>
-      <c r="U14" s="4" t="s">
+      <c r="W14" s="4" t="s">
         <v>277</v>
       </c>
-      <c r="V14" t="str">
+      <c r="X14" t="str">
         <f t="shared" si="5"/>
         <v>stockInfo[12]);</v>
       </c>
-      <c r="W14" t="str">
+      <c r="Y14" t="str">
         <f t="shared" si="6"/>
         <v>this.volumeBuyTwo=new BigDecimal(stockInfo[12]);</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" ht="15">
+      <c r="Z14" t="str">
+        <f t="shared" si="7"/>
+        <v>isEmpty(stockInfo[12])?</v>
+      </c>
+      <c r="AA14" t="str">
+        <f t="shared" si="8"/>
+        <v>null:</v>
+      </c>
+      <c r="AB14" t="str">
+        <f t="shared" si="9"/>
+        <v>this.volumeBuyTwo=isEmpty(stockInfo[12])?null:new BigDecimal(stockInfo[12]);</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" ht="15">
       <c r="A15" t="s">
         <v>218</v>
       </c>
       <c r="B15">
         <v>13</v>
       </c>
-      <c r="C15">
+      <c r="C15" t="s">
+        <v>313</v>
+      </c>
+      <c r="D15">
         <v>70.56</v>
       </c>
-      <c r="D15" t="str">
+      <c r="E15" t="str">
         <f t="shared" si="0"/>
         <v>price_buy_three;</v>
       </c>
-      <c r="F15" t="str">
+      <c r="G15" t="str">
         <f t="shared" si="1"/>
         <v>`price_buy_three`,</v>
       </c>
-      <c r="H15" t="s">
+      <c r="I15" t="s">
         <v>100</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>10</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <v>24</v>
       </c>
+      <c r="M15">
+        <v>19</v>
+      </c>
       <c r="N15" t="s">
+        <v>290</v>
+      </c>
+      <c r="P15" t="s">
         <v>234</v>
       </c>
-      <c r="O15" t="s">
+      <c r="Q15" t="s">
         <v>236</v>
       </c>
-      <c r="P15" t="s">
+      <c r="R15" t="s">
         <v>250</v>
       </c>
-      <c r="Q15" t="str">
+      <c r="S15" t="str">
         <f t="shared" si="2"/>
         <v>#{item.priceBuyThree},</v>
       </c>
-      <c r="R15" t="str">
+      <c r="T15" t="str">
         <f t="shared" si="4"/>
         <v>#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.mark</v>
       </c>
-      <c r="T15" t="str">
+      <c r="V15" t="str">
         <f t="shared" si="3"/>
         <v>this.priceBuyThree=</v>
       </c>
-      <c r="U15" s="4" t="s">
+      <c r="W15" s="4" t="s">
         <v>277</v>
       </c>
-      <c r="V15" t="str">
+      <c r="X15" t="str">
         <f t="shared" si="5"/>
         <v>stockInfo[13]);</v>
       </c>
-      <c r="W15" t="str">
+      <c r="Y15" t="str">
         <f t="shared" si="6"/>
         <v>this.priceBuyThree=new BigDecimal(stockInfo[13]);</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" ht="15">
+      <c r="Z15" t="str">
+        <f t="shared" si="7"/>
+        <v>isEmpty(stockInfo[13])?</v>
+      </c>
+      <c r="AA15" t="str">
+        <f t="shared" si="8"/>
+        <v>null:</v>
+      </c>
+      <c r="AB15" t="str">
+        <f t="shared" si="9"/>
+        <v>this.priceBuyThree=isEmpty(stockInfo[13])?null:new BigDecimal(stockInfo[13]);</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" ht="15">
       <c r="A16" t="s">
         <v>219</v>
       </c>
       <c r="B16">
         <v>14</v>
       </c>
-      <c r="C16">
+      <c r="C16" t="s">
+        <v>314</v>
+      </c>
+      <c r="D16">
         <v>3</v>
       </c>
-      <c r="D16" t="str">
+      <c r="E16" t="str">
         <f t="shared" si="0"/>
         <v>volume_buy_three;</v>
       </c>
-      <c r="F16" t="str">
+      <c r="G16" t="str">
         <f t="shared" si="1"/>
         <v>`volume_buy_three`,</v>
       </c>
-      <c r="H16" t="s">
+      <c r="I16" t="s">
         <v>102</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>11</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <v>70.569999999999993</v>
       </c>
+      <c r="M16">
+        <v>20</v>
+      </c>
       <c r="N16" t="s">
+        <v>291</v>
+      </c>
+      <c r="P16" t="s">
         <v>234</v>
       </c>
-      <c r="O16" t="s">
+      <c r="Q16" t="s">
         <v>236</v>
       </c>
-      <c r="P16" t="s">
+      <c r="R16" t="s">
         <v>251</v>
       </c>
-      <c r="Q16" t="str">
+      <c r="S16" t="str">
         <f t="shared" si="2"/>
         <v>#{item.volumeBuyThree},</v>
       </c>
-      <c r="R16" t="str">
+      <c r="T16" t="str">
         <f t="shared" si="4"/>
         <v>#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.mark</v>
       </c>
-      <c r="T16" t="str">
+      <c r="V16" t="str">
         <f t="shared" si="3"/>
         <v>this.volumeBuyThree=</v>
       </c>
-      <c r="U16" s="4" t="s">
+      <c r="W16" s="4" t="s">
         <v>277</v>
       </c>
-      <c r="V16" t="str">
+      <c r="X16" t="str">
         <f t="shared" si="5"/>
         <v>stockInfo[14]);</v>
       </c>
-      <c r="W16" t="str">
+      <c r="Y16" t="str">
         <f t="shared" si="6"/>
         <v>this.volumeBuyThree=new BigDecimal(stockInfo[14]);</v>
       </c>
-    </row>
-    <row r="17" spans="1:23" ht="15">
+      <c r="Z16" t="str">
+        <f t="shared" si="7"/>
+        <v>isEmpty(stockInfo[14])?</v>
+      </c>
+      <c r="AA16" t="str">
+        <f t="shared" si="8"/>
+        <v>null:</v>
+      </c>
+      <c r="AB16" t="str">
+        <f t="shared" si="9"/>
+        <v>this.volumeBuyThree=isEmpty(stockInfo[14])?null:new BigDecimal(stockInfo[14]);</v>
+      </c>
+    </row>
+    <row r="17" spans="1:28" ht="15">
       <c r="A17" t="s">
         <v>220</v>
       </c>
       <c r="B17">
         <v>15</v>
       </c>
-      <c r="C17">
+      <c r="C17" t="s">
+        <v>315</v>
+      </c>
+      <c r="D17">
         <v>70.540000000000006</v>
       </c>
-      <c r="D17" t="str">
+      <c r="E17" t="str">
         <f t="shared" si="0"/>
         <v>price_buy_four;</v>
       </c>
-      <c r="F17" t="str">
+      <c r="G17" t="str">
         <f t="shared" si="1"/>
         <v>`price_buy_four`,</v>
       </c>
-      <c r="H17" t="s">
+      <c r="I17" t="s">
         <v>110</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>12</v>
       </c>
-      <c r="J17">
+      <c r="K17">
         <v>3</v>
       </c>
+      <c r="M17" t="s">
+        <v>292</v>
+      </c>
       <c r="N17" t="s">
+        <v>293</v>
+      </c>
+      <c r="P17" t="s">
         <v>234</v>
       </c>
-      <c r="O17" t="s">
+      <c r="Q17" t="s">
         <v>236</v>
       </c>
-      <c r="P17" t="s">
+      <c r="R17" t="s">
         <v>252</v>
       </c>
-      <c r="Q17" t="str">
+      <c r="S17" t="str">
         <f t="shared" si="2"/>
         <v>#{item.priceBuyFour},</v>
       </c>
-      <c r="R17" t="str">
+      <c r="T17" t="str">
         <f t="shared" si="4"/>
         <v>#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.mark</v>
       </c>
-      <c r="T17" t="str">
+      <c r="V17" t="str">
         <f t="shared" si="3"/>
         <v>this.priceBuyFour=</v>
       </c>
-      <c r="U17" s="4" t="s">
+      <c r="W17" s="4" t="s">
         <v>277</v>
       </c>
-      <c r="V17" t="str">
+      <c r="X17" t="str">
         <f t="shared" si="5"/>
         <v>stockInfo[15]);</v>
       </c>
-      <c r="W17" t="str">
+      <c r="Y17" t="str">
         <f t="shared" si="6"/>
         <v>this.priceBuyFour=new BigDecimal(stockInfo[15]);</v>
       </c>
-    </row>
-    <row r="18" spans="1:23" ht="15">
+      <c r="Z17" t="str">
+        <f t="shared" si="7"/>
+        <v>isEmpty(stockInfo[15])?</v>
+      </c>
+      <c r="AA17" t="str">
+        <f t="shared" si="8"/>
+        <v>null:</v>
+      </c>
+      <c r="AB17" t="str">
+        <f t="shared" si="9"/>
+        <v>this.priceBuyFour=isEmpty(stockInfo[15])?null:new BigDecimal(stockInfo[15]);</v>
+      </c>
+    </row>
+    <row r="18" spans="1:28" ht="15">
       <c r="A18" t="s">
         <v>221</v>
       </c>
       <c r="B18">
         <v>16</v>
       </c>
-      <c r="C18">
+      <c r="C18" t="s">
+        <v>316</v>
+      </c>
+      <c r="D18">
         <v>26</v>
       </c>
-      <c r="D18" t="str">
+      <c r="E18" t="str">
         <f t="shared" si="0"/>
         <v>volume_buy_four;</v>
       </c>
-      <c r="F18" t="str">
+      <c r="G18" t="str">
         <f t="shared" si="1"/>
         <v>`volume_buy_four`,</v>
       </c>
-      <c r="H18" t="s">
+      <c r="I18" t="s">
         <v>104</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>13</v>
       </c>
-      <c r="J18">
+      <c r="K18">
         <v>70.56</v>
       </c>
+      <c r="M18">
+        <v>29</v>
+      </c>
       <c r="N18" t="s">
+        <v>294</v>
+      </c>
+      <c r="P18" t="s">
         <v>234</v>
       </c>
-      <c r="O18" t="s">
+      <c r="Q18" t="s">
         <v>236</v>
       </c>
-      <c r="P18" t="s">
+      <c r="R18" t="s">
         <v>253</v>
       </c>
-      <c r="Q18" t="str">
+      <c r="S18" t="str">
         <f t="shared" si="2"/>
         <v>#{item.volumeBuyFour},</v>
       </c>
-      <c r="R18" t="str">
+      <c r="T18" t="str">
         <f t="shared" si="4"/>
         <v>#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.mark</v>
       </c>
-      <c r="T18" t="str">
+      <c r="V18" t="str">
         <f t="shared" si="3"/>
         <v>this.volumeBuyFour=</v>
       </c>
-      <c r="U18" s="4" t="s">
+      <c r="W18" s="4" t="s">
         <v>277</v>
       </c>
-      <c r="V18" t="str">
+      <c r="X18" t="str">
         <f t="shared" si="5"/>
         <v>stockInfo[16]);</v>
       </c>
-      <c r="W18" t="str">
+      <c r="Y18" t="str">
         <f t="shared" si="6"/>
         <v>this.volumeBuyFour=new BigDecimal(stockInfo[16]);</v>
       </c>
-    </row>
-    <row r="19" spans="1:23" ht="15">
+      <c r="Z18" t="str">
+        <f t="shared" si="7"/>
+        <v>isEmpty(stockInfo[16])?</v>
+      </c>
+      <c r="AA18" t="str">
+        <f t="shared" si="8"/>
+        <v>null:</v>
+      </c>
+      <c r="AB18" t="str">
+        <f t="shared" si="9"/>
+        <v>this.volumeBuyFour=isEmpty(stockInfo[16])?null:new BigDecimal(stockInfo[16]);</v>
+      </c>
+    </row>
+    <row r="19" spans="1:28" ht="15">
       <c r="A19" t="s">
         <v>222</v>
       </c>
       <c r="B19">
         <v>17</v>
       </c>
-      <c r="C19">
+      <c r="C19" t="s">
+        <v>317</v>
+      </c>
+      <c r="D19">
         <v>70.53</v>
       </c>
-      <c r="D19" t="str">
+      <c r="E19" t="str">
         <f t="shared" si="0"/>
         <v>price_buy_five;</v>
       </c>
-      <c r="F19" t="str">
+      <c r="G19" t="str">
         <f t="shared" si="1"/>
         <v>`price_buy_five`,</v>
       </c>
-      <c r="H19" t="s">
+      <c r="I19" t="s">
         <v>106</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <v>14</v>
       </c>
-      <c r="J19">
+      <c r="K19">
         <v>3</v>
       </c>
+      <c r="M19">
+        <v>30</v>
+      </c>
       <c r="N19" t="s">
+        <v>295</v>
+      </c>
+      <c r="P19" t="s">
         <v>234</v>
       </c>
-      <c r="O19" t="s">
+      <c r="Q19" t="s">
         <v>236</v>
       </c>
-      <c r="P19" t="s">
+      <c r="R19" t="s">
         <v>254</v>
       </c>
-      <c r="Q19" t="str">
+      <c r="S19" t="str">
         <f t="shared" si="2"/>
         <v>#{item.priceBuyFive},</v>
       </c>
-      <c r="R19" t="str">
+      <c r="T19" t="str">
         <f t="shared" si="4"/>
         <v>#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.mark</v>
       </c>
-      <c r="T19" t="str">
+      <c r="V19" t="str">
         <f t="shared" si="3"/>
         <v>this.priceBuyFive=</v>
       </c>
-      <c r="U19" s="4" t="s">
+      <c r="W19" s="4" t="s">
         <v>277</v>
       </c>
-      <c r="V19" t="str">
+      <c r="X19" t="str">
         <f t="shared" si="5"/>
         <v>stockInfo[17]);</v>
       </c>
-      <c r="W19" t="str">
+      <c r="Y19" t="str">
         <f t="shared" si="6"/>
         <v>this.priceBuyFive=new BigDecimal(stockInfo[17]);</v>
       </c>
-    </row>
-    <row r="20" spans="1:23" ht="15">
+      <c r="Z19" t="str">
+        <f t="shared" si="7"/>
+        <v>isEmpty(stockInfo[17])?</v>
+      </c>
+      <c r="AA19" t="str">
+        <f t="shared" si="8"/>
+        <v>null:</v>
+      </c>
+      <c r="AB19" t="str">
+        <f t="shared" si="9"/>
+        <v>this.priceBuyFive=isEmpty(stockInfo[17])?null:new BigDecimal(stockInfo[17]);</v>
+      </c>
+    </row>
+    <row r="20" spans="1:28" ht="15">
       <c r="A20" t="s">
         <v>223</v>
       </c>
       <c r="B20">
         <v>18</v>
       </c>
-      <c r="C20">
+      <c r="C20" t="s">
+        <v>318</v>
+      </c>
+      <c r="D20">
         <v>28</v>
       </c>
-      <c r="D20" t="str">
+      <c r="E20" t="str">
         <f t="shared" si="0"/>
         <v>volume_buy_five;</v>
       </c>
-      <c r="F20" t="str">
+      <c r="G20" t="str">
         <f t="shared" si="1"/>
         <v>`volume_buy_five`,</v>
       </c>
-      <c r="H20" t="s">
+      <c r="I20" t="s">
         <v>108</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <v>15</v>
       </c>
-      <c r="J20">
+      <c r="K20">
         <v>70.540000000000006</v>
       </c>
+      <c r="M20">
+        <v>31</v>
+      </c>
       <c r="N20" t="s">
+        <v>296</v>
+      </c>
+      <c r="P20" t="s">
         <v>234</v>
       </c>
-      <c r="O20" t="s">
+      <c r="Q20" t="s">
         <v>236</v>
       </c>
-      <c r="P20" t="s">
+      <c r="R20" t="s">
         <v>255</v>
       </c>
-      <c r="Q20" t="str">
+      <c r="S20" t="str">
         <f t="shared" si="2"/>
         <v>#{item.volumeBuyFive},</v>
       </c>
-      <c r="R20" t="str">
+      <c r="T20" t="str">
         <f t="shared" si="4"/>
         <v>#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.mark</v>
       </c>
-      <c r="T20" t="str">
+      <c r="V20" t="str">
         <f t="shared" si="3"/>
         <v>this.volumeBuyFive=</v>
       </c>
-      <c r="U20" s="4" t="s">
+      <c r="W20" s="4" t="s">
         <v>277</v>
       </c>
-      <c r="V20" t="str">
+      <c r="X20" t="str">
         <f t="shared" si="5"/>
         <v>stockInfo[18]);</v>
       </c>
-      <c r="W20" t="str">
+      <c r="Y20" t="str">
         <f t="shared" si="6"/>
         <v>this.volumeBuyFive=new BigDecimal(stockInfo[18]);</v>
       </c>
-    </row>
-    <row r="21" spans="1:23" ht="15">
+      <c r="Z20" t="str">
+        <f t="shared" si="7"/>
+        <v>isEmpty(stockInfo[18])?</v>
+      </c>
+      <c r="AA20" t="str">
+        <f t="shared" si="8"/>
+        <v>null:</v>
+      </c>
+      <c r="AB20" t="str">
+        <f t="shared" si="9"/>
+        <v>this.volumeBuyFive=isEmpty(stockInfo[18])?null:new BigDecimal(stockInfo[18]);</v>
+      </c>
+    </row>
+    <row r="21" spans="1:28" ht="15">
       <c r="A21" t="s">
         <v>224</v>
       </c>
       <c r="B21">
         <v>19</v>
       </c>
-      <c r="C21">
+      <c r="C21" t="s">
+        <v>326</v>
+      </c>
+      <c r="D21">
         <v>70.599999999999994</v>
       </c>
-      <c r="D21" t="str">
+      <c r="E21" t="str">
         <f t="shared" si="0"/>
         <v>price_sell_one;</v>
       </c>
-      <c r="F21" t="str">
+      <c r="G21" t="str">
         <f t="shared" si="1"/>
         <v>`price_sell_one`,</v>
       </c>
-      <c r="H21" t="s">
+      <c r="I21" t="s">
         <v>112</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <v>16</v>
       </c>
-      <c r="J21">
+      <c r="K21">
         <v>26</v>
       </c>
+      <c r="M21">
+        <v>32</v>
+      </c>
       <c r="N21" t="s">
+        <v>297</v>
+      </c>
+      <c r="P21" t="s">
         <v>234</v>
       </c>
-      <c r="O21" t="s">
+      <c r="Q21" t="s">
         <v>236</v>
       </c>
-      <c r="P21" t="s">
+      <c r="R21" t="s">
         <v>256</v>
       </c>
-      <c r="Q21" t="str">
+      <c r="S21" t="str">
         <f t="shared" si="2"/>
         <v>#{item.priceSellOne},</v>
       </c>
-      <c r="R21" t="str">
+      <c r="T21" t="str">
         <f t="shared" si="4"/>
         <v>#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.mark</v>
       </c>
-      <c r="T21" t="str">
+      <c r="V21" t="str">
         <f t="shared" si="3"/>
         <v>this.priceSellOne=</v>
       </c>
-      <c r="U21" s="4" t="s">
+      <c r="W21" s="4" t="s">
         <v>277</v>
       </c>
-      <c r="V21" t="str">
+      <c r="X21" t="str">
         <f t="shared" si="5"/>
         <v>stockInfo[19]);</v>
       </c>
-      <c r="W21" t="str">
+      <c r="Y21" t="str">
         <f t="shared" si="6"/>
         <v>this.priceSellOne=new BigDecimal(stockInfo[19]);</v>
       </c>
-    </row>
-    <row r="22" spans="1:23" ht="15">
+      <c r="Z21" t="str">
+        <f t="shared" si="7"/>
+        <v>isEmpty(stockInfo[19])?</v>
+      </c>
+      <c r="AA21" t="str">
+        <f t="shared" si="8"/>
+        <v>null:</v>
+      </c>
+      <c r="AB21" t="str">
+        <f t="shared" si="9"/>
+        <v>this.priceSellOne=isEmpty(stockInfo[19])?null:new BigDecimal(stockInfo[19]);</v>
+      </c>
+    </row>
+    <row r="22" spans="1:28" ht="15">
       <c r="A22" t="s">
         <v>225</v>
       </c>
       <c r="B22">
         <v>20</v>
       </c>
-      <c r="C22">
+      <c r="C22" t="s">
+        <v>328</v>
+      </c>
+      <c r="D22">
         <v>101</v>
       </c>
-      <c r="D22" t="str">
+      <c r="E22" t="str">
         <f t="shared" si="0"/>
         <v>volume_sell_one;</v>
       </c>
-      <c r="F22" t="str">
+      <c r="G22" t="str">
         <f t="shared" si="1"/>
         <v>`volume_sell_one`,</v>
       </c>
-      <c r="H22" t="s">
+      <c r="I22" t="s">
         <v>114</v>
       </c>
-      <c r="I22">
+      <c r="J22">
         <v>17</v>
       </c>
-      <c r="J22">
+      <c r="K22">
         <v>70.53</v>
       </c>
+      <c r="M22">
+        <v>33</v>
+      </c>
       <c r="N22" t="s">
+        <v>298</v>
+      </c>
+      <c r="P22" t="s">
         <v>234</v>
       </c>
-      <c r="O22" t="s">
+      <c r="Q22" t="s">
         <v>236</v>
       </c>
-      <c r="P22" t="s">
+      <c r="R22" t="s">
         <v>257</v>
       </c>
-      <c r="Q22" t="str">
+      <c r="S22" t="str">
         <f t="shared" si="2"/>
         <v>#{item.volumeSellOne},</v>
       </c>
-      <c r="R22" t="str">
+      <c r="T22" t="str">
         <f t="shared" si="4"/>
         <v>#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.mark</v>
       </c>
-      <c r="T22" t="str">
+      <c r="V22" t="str">
         <f t="shared" si="3"/>
         <v>this.volumeSellOne=</v>
       </c>
-      <c r="U22" s="4" t="s">
+      <c r="W22" s="4" t="s">
         <v>277</v>
       </c>
-      <c r="V22" t="str">
+      <c r="X22" t="str">
         <f t="shared" si="5"/>
         <v>stockInfo[20]);</v>
       </c>
-      <c r="W22" t="str">
+      <c r="Y22" t="str">
         <f t="shared" si="6"/>
         <v>this.volumeSellOne=new BigDecimal(stockInfo[20]);</v>
       </c>
-    </row>
-    <row r="23" spans="1:23" ht="15">
+      <c r="Z22" t="str">
+        <f t="shared" si="7"/>
+        <v>isEmpty(stockInfo[20])?</v>
+      </c>
+      <c r="AA22" t="str">
+        <f t="shared" si="8"/>
+        <v>null:</v>
+      </c>
+      <c r="AB22" t="str">
+        <f t="shared" si="9"/>
+        <v>this.volumeSellOne=isEmpty(stockInfo[20])?null:new BigDecimal(stockInfo[20]);</v>
+      </c>
+    </row>
+    <row r="23" spans="1:28" ht="15">
       <c r="A23" t="s">
         <v>226</v>
       </c>
       <c r="B23">
         <v>21</v>
       </c>
-      <c r="C23">
+      <c r="C23" t="s">
+        <v>319</v>
+      </c>
+      <c r="D23">
         <v>70.62</v>
       </c>
-      <c r="D23" t="str">
+      <c r="E23" t="str">
         <f t="shared" si="0"/>
         <v>price_sell_two;</v>
       </c>
-      <c r="F23" t="str">
+      <c r="G23" t="str">
         <f t="shared" si="1"/>
         <v>`price_sell_two`,</v>
       </c>
-      <c r="H23" t="s">
+      <c r="I23" t="s">
         <v>114</v>
       </c>
-      <c r="I23">
+      <c r="J23">
         <v>18</v>
       </c>
-      <c r="J23">
+      <c r="K23">
         <v>28</v>
       </c>
+      <c r="M23">
+        <v>34</v>
+      </c>
       <c r="N23" t="s">
+        <v>299</v>
+      </c>
+      <c r="P23" t="s">
         <v>234</v>
       </c>
-      <c r="O23" t="s">
+      <c r="Q23" t="s">
         <v>236</v>
       </c>
-      <c r="P23" t="s">
+      <c r="R23" t="s">
         <v>258</v>
       </c>
-      <c r="Q23" t="str">
+      <c r="S23" t="str">
         <f t="shared" si="2"/>
         <v>#{item.priceSellTwo},</v>
       </c>
-      <c r="R23" t="str">
+      <c r="T23" t="str">
         <f t="shared" si="4"/>
         <v>#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.mark</v>
       </c>
-      <c r="T23" t="str">
+      <c r="V23" t="str">
         <f t="shared" si="3"/>
         <v>this.priceSellTwo=</v>
       </c>
-      <c r="U23" s="4" t="s">
+      <c r="W23" s="4" t="s">
         <v>277</v>
       </c>
-      <c r="V23" t="str">
+      <c r="X23" t="str">
         <f t="shared" si="5"/>
         <v>stockInfo[21]);</v>
       </c>
-      <c r="W23" t="str">
+      <c r="Y23" t="str">
         <f t="shared" si="6"/>
         <v>this.priceSellTwo=new BigDecimal(stockInfo[21]);</v>
       </c>
-    </row>
-    <row r="24" spans="1:23" ht="15">
+      <c r="Z23" t="str">
+        <f t="shared" si="7"/>
+        <v>isEmpty(stockInfo[21])?</v>
+      </c>
+      <c r="AA23" t="str">
+        <f t="shared" si="8"/>
+        <v>null:</v>
+      </c>
+      <c r="AB23" t="str">
+        <f t="shared" si="9"/>
+        <v>this.priceSellTwo=isEmpty(stockInfo[21])?null:new BigDecimal(stockInfo[21]);</v>
+      </c>
+    </row>
+    <row r="24" spans="1:28" ht="15">
       <c r="A24" t="s">
         <v>227</v>
       </c>
       <c r="B24">
         <v>22</v>
       </c>
-      <c r="C24">
+      <c r="C24" t="s">
+        <v>320</v>
+      </c>
+      <c r="D24">
         <v>252</v>
       </c>
-      <c r="D24" t="str">
+      <c r="E24" t="str">
         <f t="shared" si="0"/>
         <v>volume_sell_two;</v>
       </c>
-      <c r="F24" t="str">
+      <c r="G24" t="str">
         <f t="shared" si="1"/>
         <v>`volume_sell_two`,</v>
       </c>
-      <c r="H24" t="s">
+      <c r="I24" t="s">
         <v>116</v>
       </c>
-      <c r="I24">
+      <c r="J24">
         <v>19</v>
       </c>
-      <c r="J24">
+      <c r="K24">
         <v>70.599999999999994</v>
       </c>
+      <c r="M24">
+        <v>35</v>
+      </c>
       <c r="N24" t="s">
+        <v>300</v>
+      </c>
+      <c r="P24" t="s">
         <v>234</v>
       </c>
-      <c r="O24" t="s">
+      <c r="Q24" t="s">
         <v>236</v>
       </c>
-      <c r="P24" t="s">
+      <c r="R24" t="s">
         <v>259</v>
       </c>
-      <c r="Q24" t="str">
+      <c r="S24" t="str">
         <f t="shared" si="2"/>
         <v>#{item.volumeSellTwo},</v>
       </c>
-      <c r="R24" t="str">
+      <c r="T24" t="str">
         <f t="shared" si="4"/>
         <v>#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.mark</v>
       </c>
-      <c r="T24" t="str">
+      <c r="V24" t="str">
         <f t="shared" si="3"/>
         <v>this.volumeSellTwo=</v>
       </c>
-      <c r="U24" s="4" t="s">
+      <c r="W24" s="4" t="s">
         <v>277</v>
       </c>
-      <c r="V24" t="str">
+      <c r="X24" t="str">
         <f t="shared" si="5"/>
         <v>stockInfo[22]);</v>
       </c>
-      <c r="W24" t="str">
+      <c r="Y24" t="str">
         <f t="shared" si="6"/>
         <v>this.volumeSellTwo=new BigDecimal(stockInfo[22]);</v>
       </c>
-    </row>
-    <row r="25" spans="1:23" ht="15">
+      <c r="Z24" t="str">
+        <f t="shared" si="7"/>
+        <v>isEmpty(stockInfo[22])?</v>
+      </c>
+      <c r="AA24" t="str">
+        <f t="shared" si="8"/>
+        <v>null:</v>
+      </c>
+      <c r="AB24" t="str">
+        <f t="shared" si="9"/>
+        <v>this.volumeSellTwo=isEmpty(stockInfo[22])?null:new BigDecimal(stockInfo[22]);</v>
+      </c>
+    </row>
+    <row r="25" spans="1:28" ht="15">
       <c r="A25" t="s">
         <v>228</v>
       </c>
       <c r="B25">
         <v>23</v>
       </c>
-      <c r="C25">
+      <c r="C25" t="s">
+        <v>321</v>
+      </c>
+      <c r="D25">
         <v>70.63</v>
       </c>
-      <c r="D25" t="str">
+      <c r="E25" t="str">
         <f t="shared" si="0"/>
         <v>price_sell_three;</v>
       </c>
-      <c r="F25" t="str">
+      <c r="G25" t="str">
         <f t="shared" si="1"/>
         <v>`price_sell_three`,</v>
       </c>
-      <c r="H25" t="s">
+      <c r="I25" t="s">
         <v>118</v>
       </c>
-      <c r="I25">
+      <c r="J25">
         <v>20</v>
       </c>
-      <c r="J25">
+      <c r="K25">
         <v>101</v>
       </c>
+      <c r="M25">
+        <v>36</v>
+      </c>
       <c r="N25" t="s">
+        <v>284</v>
+      </c>
+      <c r="P25" t="s">
         <v>234</v>
       </c>
-      <c r="O25" t="s">
+      <c r="Q25" t="s">
         <v>236</v>
       </c>
-      <c r="P25" t="s">
+      <c r="R25" t="s">
         <v>260</v>
       </c>
-      <c r="Q25" t="str">
+      <c r="S25" t="str">
         <f t="shared" si="2"/>
         <v>#{item.priceSellThree},</v>
       </c>
-      <c r="R25" t="str">
+      <c r="T25" t="str">
         <f t="shared" si="4"/>
         <v>#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.mark</v>
       </c>
-      <c r="T25" t="str">
+      <c r="V25" t="str">
         <f t="shared" si="3"/>
         <v>this.priceSellThree=</v>
       </c>
-      <c r="U25" s="4" t="s">
+      <c r="W25" s="4" t="s">
         <v>277</v>
       </c>
-      <c r="V25" t="str">
+      <c r="X25" t="str">
         <f t="shared" si="5"/>
         <v>stockInfo[23]);</v>
       </c>
-      <c r="W25" t="str">
+      <c r="Y25" t="str">
         <f t="shared" si="6"/>
         <v>this.priceSellThree=new BigDecimal(stockInfo[23]);</v>
       </c>
-    </row>
-    <row r="26" spans="1:23" ht="15">
+      <c r="Z25" t="str">
+        <f t="shared" si="7"/>
+        <v>isEmpty(stockInfo[23])?</v>
+      </c>
+      <c r="AA25" t="str">
+        <f t="shared" si="8"/>
+        <v>null:</v>
+      </c>
+      <c r="AB25" t="str">
+        <f t="shared" si="9"/>
+        <v>this.priceSellThree=isEmpty(stockInfo[23])?null:new BigDecimal(stockInfo[23]);</v>
+      </c>
+    </row>
+    <row r="26" spans="1:28" ht="15">
       <c r="A26" t="s">
         <v>229</v>
       </c>
       <c r="B26">
         <v>24</v>
       </c>
-      <c r="C26">
+      <c r="C26" t="s">
+        <v>322</v>
+      </c>
+      <c r="D26">
         <v>114</v>
       </c>
-      <c r="D26" t="str">
+      <c r="E26" t="str">
         <f t="shared" si="0"/>
         <v>volume_sell_three;</v>
       </c>
-      <c r="F26" t="str">
+      <c r="G26" t="str">
         <f t="shared" si="1"/>
         <v>`volume_sell_three`,</v>
       </c>
-      <c r="H26" t="s">
+      <c r="I26" t="s">
         <v>122</v>
       </c>
-      <c r="I26">
+      <c r="J26">
         <v>21</v>
       </c>
-      <c r="J26">
+      <c r="K26">
         <v>70.62</v>
       </c>
+      <c r="M26">
+        <v>37</v>
+      </c>
       <c r="N26" t="s">
+        <v>301</v>
+      </c>
+      <c r="P26" t="s">
         <v>234</v>
       </c>
-      <c r="O26" t="s">
+      <c r="Q26" t="s">
         <v>236</v>
       </c>
-      <c r="P26" t="s">
+      <c r="R26" t="s">
         <v>261</v>
       </c>
-      <c r="Q26" t="str">
+      <c r="S26" t="str">
         <f t="shared" si="2"/>
         <v>#{item.volumeSellThree},</v>
       </c>
-      <c r="R26" t="str">
+      <c r="T26" t="str">
         <f t="shared" si="4"/>
         <v>#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.mark</v>
       </c>
-      <c r="T26" t="str">
+      <c r="V26" t="str">
         <f t="shared" si="3"/>
         <v>this.volumeSellThree=</v>
       </c>
-      <c r="U26" s="4" t="s">
+      <c r="W26" s="4" t="s">
         <v>277</v>
       </c>
-      <c r="V26" t="str">
+      <c r="X26" t="str">
         <f t="shared" si="5"/>
         <v>stockInfo[24]);</v>
       </c>
-      <c r="W26" t="str">
+      <c r="Y26" t="str">
         <f t="shared" si="6"/>
         <v>this.volumeSellThree=new BigDecimal(stockInfo[24]);</v>
       </c>
-    </row>
-    <row r="27" spans="1:23" ht="15">
+      <c r="Z26" t="str">
+        <f t="shared" si="7"/>
+        <v>isEmpty(stockInfo[24])?</v>
+      </c>
+      <c r="AA26" t="str">
+        <f t="shared" si="8"/>
+        <v>null:</v>
+      </c>
+      <c r="AB26" t="str">
+        <f t="shared" si="9"/>
+        <v>this.volumeSellThree=isEmpty(stockInfo[24])?null:new BigDecimal(stockInfo[24]);</v>
+      </c>
+    </row>
+    <row r="27" spans="1:28" ht="15">
       <c r="A27" t="s">
         <v>230</v>
       </c>
       <c r="B27">
         <v>25</v>
       </c>
-      <c r="C27">
+      <c r="C27" t="s">
+        <v>323</v>
+      </c>
+      <c r="D27">
         <v>70.64</v>
       </c>
-      <c r="D27" t="str">
+      <c r="E27" t="str">
         <f t="shared" si="0"/>
         <v>price_sell_four;</v>
       </c>
-      <c r="F27" t="str">
+      <c r="G27" t="str">
         <f t="shared" si="1"/>
         <v>`price_sell_four`,</v>
       </c>
-      <c r="H27" t="s">
+      <c r="I27" t="s">
         <v>120</v>
       </c>
-      <c r="I27">
+      <c r="J27">
         <v>22</v>
       </c>
-      <c r="J27">
+      <c r="K27">
         <v>252</v>
       </c>
+      <c r="M27">
+        <v>38</v>
+      </c>
       <c r="N27" t="s">
+        <v>302</v>
+      </c>
+      <c r="P27" t="s">
         <v>234</v>
       </c>
-      <c r="O27" t="s">
+      <c r="Q27" t="s">
         <v>236</v>
       </c>
-      <c r="P27" t="s">
+      <c r="R27" t="s">
         <v>262</v>
       </c>
-      <c r="Q27" t="str">
+      <c r="S27" t="str">
         <f t="shared" si="2"/>
         <v>#{item.priceSellFour},</v>
       </c>
-      <c r="R27" t="str">
+      <c r="T27" t="str">
         <f t="shared" si="4"/>
         <v>#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.mark</v>
       </c>
-      <c r="T27" t="str">
+      <c r="V27" t="str">
         <f t="shared" si="3"/>
         <v>this.priceSellFour=</v>
       </c>
-      <c r="U27" s="4" t="s">
+      <c r="W27" s="4" t="s">
         <v>277</v>
       </c>
-      <c r="V27" t="str">
+      <c r="X27" t="str">
         <f t="shared" si="5"/>
         <v>stockInfo[25]);</v>
       </c>
-      <c r="W27" t="str">
+      <c r="Y27" t="str">
         <f t="shared" si="6"/>
         <v>this.priceSellFour=new BigDecimal(stockInfo[25]);</v>
       </c>
-    </row>
-    <row r="28" spans="1:23" ht="15">
+      <c r="Z27" t="str">
+        <f t="shared" si="7"/>
+        <v>isEmpty(stockInfo[25])?</v>
+      </c>
+      <c r="AA27" t="str">
+        <f t="shared" si="8"/>
+        <v>null:</v>
+      </c>
+      <c r="AB27" t="str">
+        <f t="shared" si="9"/>
+        <v>this.priceSellFour=isEmpty(stockInfo[25])?null:new BigDecimal(stockInfo[25]);</v>
+      </c>
+    </row>
+    <row r="28" spans="1:28" ht="15">
       <c r="A28" t="s">
         <v>231</v>
       </c>
       <c r="B28">
         <v>26</v>
       </c>
-      <c r="C28">
+      <c r="C28" t="s">
+        <v>324</v>
+      </c>
+      <c r="D28">
         <v>6</v>
       </c>
-      <c r="D28" t="str">
+      <c r="E28" t="str">
         <f t="shared" si="0"/>
         <v>volume_sell_four;</v>
       </c>
-      <c r="F28" t="str">
+      <c r="G28" t="str">
         <f t="shared" si="1"/>
         <v>`volume_sell_four`,</v>
       </c>
-      <c r="H28" t="s">
+      <c r="I28" t="s">
         <v>124</v>
       </c>
-      <c r="I28">
+      <c r="J28">
         <v>23</v>
       </c>
-      <c r="J28">
+      <c r="K28">
         <v>70.63</v>
       </c>
+      <c r="M28">
+        <v>39</v>
+      </c>
       <c r="N28" t="s">
+        <v>303</v>
+      </c>
+      <c r="P28" t="s">
         <v>234</v>
       </c>
-      <c r="O28" t="s">
+      <c r="Q28" t="s">
         <v>236</v>
       </c>
-      <c r="P28" t="s">
+      <c r="R28" t="s">
         <v>263</v>
       </c>
-      <c r="Q28" t="str">
+      <c r="S28" t="str">
         <f t="shared" si="2"/>
         <v>#{item.volumeSellFour},</v>
       </c>
-      <c r="R28" t="str">
+      <c r="T28" t="str">
         <f t="shared" si="4"/>
         <v>#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.mark</v>
       </c>
-      <c r="T28" t="str">
+      <c r="V28" t="str">
         <f t="shared" si="3"/>
         <v>this.volumeSellFour=</v>
       </c>
-      <c r="U28" s="4" t="s">
+      <c r="W28" s="4" t="s">
         <v>277</v>
       </c>
-      <c r="V28" t="str">
+      <c r="X28" t="str">
         <f t="shared" si="5"/>
         <v>stockInfo[26]);</v>
       </c>
-      <c r="W28" t="str">
+      <c r="Y28" t="str">
         <f t="shared" si="6"/>
         <v>this.volumeSellFour=new BigDecimal(stockInfo[26]);</v>
       </c>
-    </row>
-    <row r="29" spans="1:23" ht="15">
+      <c r="Z28" t="str">
+        <f t="shared" si="7"/>
+        <v>isEmpty(stockInfo[26])?</v>
+      </c>
+      <c r="AA28" t="str">
+        <f t="shared" si="8"/>
+        <v>null:</v>
+      </c>
+      <c r="AB28" t="str">
+        <f t="shared" si="9"/>
+        <v>this.volumeSellFour=isEmpty(stockInfo[26])?null:new BigDecimal(stockInfo[26]);</v>
+      </c>
+    </row>
+    <row r="29" spans="1:28" ht="15">
       <c r="A29" t="s">
         <v>232</v>
       </c>
       <c r="B29">
         <v>27</v>
       </c>
-      <c r="C29">
+      <c r="C29" t="s">
+        <v>325</v>
+      </c>
+      <c r="D29">
         <v>70.650000000000006</v>
       </c>
-      <c r="D29" t="str">
+      <c r="E29" t="str">
         <f t="shared" si="0"/>
         <v>price_sell_five;</v>
       </c>
-      <c r="F29" t="str">
+      <c r="G29" t="str">
         <f t="shared" si="1"/>
         <v>`price_sell_five`,</v>
       </c>
-      <c r="H29" t="s">
+      <c r="I29" t="s">
         <v>126</v>
       </c>
-      <c r="I29">
+      <c r="J29">
         <v>24</v>
       </c>
-      <c r="J29">
+      <c r="K29">
         <v>114</v>
       </c>
+      <c r="M29">
+        <v>40</v>
+      </c>
       <c r="N29" t="s">
+        <v>304</v>
+      </c>
+      <c r="P29" t="s">
         <v>234</v>
       </c>
-      <c r="O29" t="s">
+      <c r="Q29" t="s">
         <v>236</v>
       </c>
-      <c r="P29" t="s">
+      <c r="R29" t="s">
         <v>264</v>
       </c>
-      <c r="Q29" t="str">
+      <c r="S29" t="str">
         <f t="shared" si="2"/>
         <v>#{item.priceSellFive},</v>
       </c>
-      <c r="R29" t="str">
+      <c r="T29" t="str">
         <f t="shared" si="4"/>
         <v>#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.mark</v>
       </c>
-      <c r="T29" t="str">
+      <c r="V29" t="str">
         <f t="shared" si="3"/>
         <v>this.priceSellFive=</v>
       </c>
-      <c r="U29" s="4" t="s">
+      <c r="W29" s="4" t="s">
         <v>277</v>
       </c>
-      <c r="V29" t="str">
+      <c r="X29" t="str">
         <f t="shared" si="5"/>
         <v>stockInfo[27]);</v>
       </c>
-      <c r="W29" t="str">
+      <c r="Y29" t="str">
         <f t="shared" si="6"/>
         <v>this.priceSellFive=new BigDecimal(stockInfo[27]);</v>
       </c>
-    </row>
-    <row r="30" spans="1:23" ht="15">
+      <c r="Z29" t="str">
+        <f t="shared" si="7"/>
+        <v>isEmpty(stockInfo[27])?</v>
+      </c>
+      <c r="AA29" t="str">
+        <f t="shared" si="8"/>
+        <v>null:</v>
+      </c>
+      <c r="AB29" t="str">
+        <f t="shared" si="9"/>
+        <v>this.priceSellFive=isEmpty(stockInfo[27])?null:new BigDecimal(stockInfo[27]);</v>
+      </c>
+    </row>
+    <row r="30" spans="1:28" ht="15">
       <c r="A30" t="s">
         <v>233</v>
       </c>
       <c r="B30">
         <v>28</v>
       </c>
-      <c r="C30">
+      <c r="C30" t="s">
+        <v>327</v>
+      </c>
+      <c r="D30">
         <v>3</v>
       </c>
-      <c r="D30" t="str">
+      <c r="E30" t="str">
         <f t="shared" si="0"/>
         <v>volume_sell_five;</v>
       </c>
-      <c r="F30" t="str">
+      <c r="G30" t="str">
         <f t="shared" si="1"/>
         <v>`volume_sell_five`,</v>
       </c>
-      <c r="H30" t="s">
+      <c r="I30" t="s">
         <v>128</v>
       </c>
-      <c r="I30">
+      <c r="J30">
         <v>25</v>
       </c>
-      <c r="J30">
+      <c r="K30">
         <v>70.64</v>
       </c>
+      <c r="M30">
+        <v>41</v>
+      </c>
       <c r="N30" t="s">
+        <v>298</v>
+      </c>
+      <c r="P30" t="s">
         <v>234</v>
       </c>
-      <c r="O30" t="s">
+      <c r="Q30" t="s">
         <v>236</v>
       </c>
-      <c r="P30" t="s">
+      <c r="R30" t="s">
         <v>265</v>
       </c>
-      <c r="Q30" t="str">
+      <c r="S30" t="str">
         <f t="shared" si="2"/>
         <v>#{item.volumeSellFive},</v>
       </c>
-      <c r="R30" t="str">
+      <c r="T30" t="str">
         <f t="shared" si="4"/>
         <v>#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.mark</v>
       </c>
-      <c r="T30" t="str">
+      <c r="V30" t="str">
         <f t="shared" si="3"/>
         <v>this.volumeSellFive=</v>
       </c>
-      <c r="U30" s="4" t="s">
+      <c r="W30" s="4" t="s">
         <v>277</v>
       </c>
-      <c r="V30" t="str">
+      <c r="X30" t="str">
         <f t="shared" si="5"/>
         <v>stockInfo[28]);</v>
       </c>
-      <c r="W30" t="str">
+      <c r="Y30" t="str">
         <f t="shared" si="6"/>
         <v>this.volumeSellFive=new BigDecimal(stockInfo[28]);</v>
       </c>
-    </row>
-    <row r="31" spans="1:23" ht="15">
+      <c r="Z30" t="str">
+        <f t="shared" si="7"/>
+        <v>isEmpty(stockInfo[28])?</v>
+      </c>
+      <c r="AA30" t="str">
+        <f t="shared" si="8"/>
+        <v>null:</v>
+      </c>
+      <c r="AB30" t="str">
+        <f t="shared" si="9"/>
+        <v>this.volumeSellFive=isEmpty(stockInfo[28])?null:new BigDecimal(stockInfo[28]);</v>
+      </c>
+    </row>
+    <row r="31" spans="1:28" ht="15">
       <c r="A31" t="s">
         <v>134</v>
       </c>
       <c r="B31">
         <v>30</v>
       </c>
-      <c r="C31">
+      <c r="C31" t="s">
+        <v>295</v>
+      </c>
+      <c r="D31">
         <v>20200326113456</v>
       </c>
-      <c r="D31" t="str">
+      <c r="E31" t="str">
         <f t="shared" si="0"/>
         <v>statis_date;</v>
       </c>
-      <c r="F31" t="str">
+      <c r="G31" t="str">
         <f t="shared" si="1"/>
         <v>`statis_date`,</v>
       </c>
-      <c r="H31" t="s">
+      <c r="I31" t="s">
         <v>130</v>
       </c>
-      <c r="I31">
+      <c r="J31">
         <v>26</v>
       </c>
-      <c r="J31">
+      <c r="K31">
         <v>6</v>
       </c>
+      <c r="M31">
+        <v>42</v>
+      </c>
       <c r="N31" t="s">
+        <v>299</v>
+      </c>
+      <c r="P31" t="s">
         <v>234</v>
       </c>
-      <c r="O31" t="s">
+      <c r="Q31" t="s">
         <v>237</v>
       </c>
-      <c r="P31" t="s">
+      <c r="R31" t="s">
         <v>266</v>
       </c>
-      <c r="Q31" t="str">
+      <c r="S31" t="str">
         <f t="shared" si="2"/>
         <v>#{item.statisDate},</v>
       </c>
-      <c r="R31" t="str">
+      <c r="T31" t="str">
         <f t="shared" si="4"/>
         <v>#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.mark</v>
       </c>
-      <c r="T31" t="str">
+      <c r="V31" t="str">
         <f t="shared" si="3"/>
         <v>this.statisDate=</v>
       </c>
-      <c r="U31" s="4" t="s">
+      <c r="W31" s="4" t="s">
         <v>277</v>
       </c>
-      <c r="V31" t="str">
+      <c r="X31" t="str">
         <f t="shared" si="5"/>
         <v>stockInfo[30]);</v>
       </c>
-      <c r="W31" t="str">
+      <c r="Y31" t="str">
         <f t="shared" si="6"/>
         <v>this.statisDate=new BigDecimal(stockInfo[30]);</v>
       </c>
-    </row>
-    <row r="32" spans="1:23" ht="15">
+      <c r="Z31" t="str">
+        <f t="shared" si="7"/>
+        <v>isEmpty(stockInfo[30])?</v>
+      </c>
+      <c r="AA31" t="str">
+        <f t="shared" si="8"/>
+        <v>null:</v>
+      </c>
+      <c r="AB31" t="str">
+        <f t="shared" si="9"/>
+        <v>this.statisDate=isEmpty(stockInfo[30])?null:new BigDecimal(stockInfo[30]);</v>
+      </c>
+    </row>
+    <row r="32" spans="1:28" ht="15">
       <c r="A32" t="s">
         <v>136</v>
       </c>
       <c r="B32">
         <v>31</v>
       </c>
-      <c r="C32">
+      <c r="C32" t="s">
+        <v>296</v>
+      </c>
+      <c r="D32">
         <v>0.23</v>
       </c>
-      <c r="D32" t="str">
+      <c r="E32" t="str">
         <f t="shared" si="0"/>
         <v>rise;</v>
       </c>
-      <c r="F32" t="str">
+      <c r="G32" t="str">
         <f t="shared" si="1"/>
         <v>`rise`,</v>
       </c>
-      <c r="H32" t="s">
+      <c r="I32" t="s">
         <v>132</v>
       </c>
-      <c r="I32">
+      <c r="J32">
         <v>27</v>
       </c>
-      <c r="J32">
+      <c r="K32">
         <v>70.650000000000006</v>
       </c>
+      <c r="M32">
+        <v>43</v>
+      </c>
       <c r="N32" t="s">
+        <v>305</v>
+      </c>
+      <c r="P32" t="s">
         <v>234</v>
       </c>
-      <c r="O32" t="s">
+      <c r="Q32" t="s">
         <v>236</v>
       </c>
-      <c r="P32" t="s">
+      <c r="R32" t="s">
         <v>136</v>
       </c>
-      <c r="Q32" t="str">
+      <c r="S32" t="str">
         <f t="shared" si="2"/>
         <v>#{item.rise},</v>
       </c>
-      <c r="R32" t="str">
+      <c r="T32" t="str">
         <f t="shared" si="4"/>
         <v>#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.mark</v>
       </c>
-      <c r="T32" t="str">
+      <c r="V32" t="str">
         <f t="shared" si="3"/>
         <v>this.rise=</v>
       </c>
-      <c r="U32" s="4" t="s">
+      <c r="W32" s="4" t="s">
         <v>277</v>
       </c>
-      <c r="V32" t="str">
+      <c r="X32" t="str">
         <f t="shared" si="5"/>
         <v>stockInfo[31]);</v>
       </c>
-      <c r="W32" t="str">
+      <c r="Y32" t="str">
         <f t="shared" si="6"/>
         <v>this.rise=new BigDecimal(stockInfo[31]);</v>
       </c>
-    </row>
-    <row r="33" spans="1:23" ht="15">
+      <c r="Z32" t="str">
+        <f t="shared" si="7"/>
+        <v>isEmpty(stockInfo[31])?</v>
+      </c>
+      <c r="AA32" t="str">
+        <f t="shared" si="8"/>
+        <v>null:</v>
+      </c>
+      <c r="AB32" t="str">
+        <f t="shared" si="9"/>
+        <v>this.rise=isEmpty(stockInfo[31])?null:new BigDecimal(stockInfo[31]);</v>
+      </c>
+    </row>
+    <row r="33" spans="1:28" ht="15">
       <c r="A33" t="s">
         <v>138</v>
       </c>
       <c r="B33">
         <v>32</v>
       </c>
-      <c r="C33">
+      <c r="C33" t="s">
+        <v>297</v>
+      </c>
+      <c r="D33">
         <v>0.33</v>
       </c>
-      <c r="D33" t="str">
+      <c r="E33" t="str">
         <f t="shared" si="0"/>
         <v>rise_rate;</v>
       </c>
-      <c r="F33" t="str">
+      <c r="G33" t="str">
         <f t="shared" si="1"/>
         <v>`rise_rate`,</v>
       </c>
-      <c r="H33" t="s">
+      <c r="I33" t="s">
         <v>132</v>
       </c>
-      <c r="I33">
+      <c r="J33">
         <v>28</v>
       </c>
-      <c r="J33">
+      <c r="K33">
         <v>3</v>
       </c>
+      <c r="M33">
+        <v>44</v>
+      </c>
       <c r="N33" t="s">
+        <v>306</v>
+      </c>
+      <c r="P33" t="s">
         <v>234</v>
       </c>
-      <c r="O33" t="s">
+      <c r="Q33" t="s">
         <v>236</v>
       </c>
-      <c r="P33" t="s">
+      <c r="R33" t="s">
         <v>267</v>
       </c>
-      <c r="Q33" t="str">
+      <c r="S33" t="str">
         <f t="shared" si="2"/>
         <v>#{item.riseRate},</v>
       </c>
-      <c r="R33" t="str">
+      <c r="T33" t="str">
         <f t="shared" si="4"/>
         <v>#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.mark</v>
       </c>
-      <c r="T33" t="str">
+      <c r="V33" t="str">
         <f t="shared" si="3"/>
         <v>this.riseRate=</v>
       </c>
-      <c r="U33" s="4" t="s">
+      <c r="W33" s="4" t="s">
         <v>277</v>
       </c>
-      <c r="V33" t="str">
+      <c r="X33" t="str">
         <f t="shared" si="5"/>
         <v>stockInfo[32]);</v>
       </c>
-      <c r="W33" t="str">
+      <c r="Y33" t="str">
         <f t="shared" si="6"/>
         <v>this.riseRate=new BigDecimal(stockInfo[32]);</v>
       </c>
-    </row>
-    <row r="34" spans="1:23" ht="15">
+      <c r="Z33" t="str">
+        <f t="shared" si="7"/>
+        <v>isEmpty(stockInfo[32])?</v>
+      </c>
+      <c r="AA33" t="str">
+        <f t="shared" si="8"/>
+        <v>null:</v>
+      </c>
+      <c r="AB33" t="str">
+        <f t="shared" si="9"/>
+        <v>this.riseRate=isEmpty(stockInfo[32])?null:new BigDecimal(stockInfo[32]);</v>
+      </c>
+    </row>
+    <row r="34" spans="1:28" ht="15">
       <c r="A34" t="s">
         <v>140</v>
       </c>
       <c r="B34">
         <v>33</v>
       </c>
-      <c r="C34">
+      <c r="C34" t="s">
+        <v>298</v>
+      </c>
+      <c r="D34">
         <v>71</v>
       </c>
-      <c r="D34" t="str">
+      <c r="E34" t="str">
         <f t="shared" si="0"/>
         <v>highest_price;</v>
       </c>
-      <c r="F34" t="str">
+      <c r="G34" t="str">
         <f t="shared" si="1"/>
         <v>`highest_price`,</v>
       </c>
-      <c r="I34">
+      <c r="J34">
         <v>29</v>
       </c>
+      <c r="M34">
+        <v>45</v>
+      </c>
       <c r="N34" t="s">
+        <v>307</v>
+      </c>
+      <c r="P34" t="s">
         <v>234</v>
       </c>
-      <c r="O34" t="s">
+      <c r="Q34" t="s">
         <v>236</v>
       </c>
-      <c r="P34" t="s">
+      <c r="R34" t="s">
         <v>268</v>
       </c>
-      <c r="Q34" t="str">
+      <c r="S34" t="str">
         <f t="shared" si="2"/>
         <v>#{item.highestPrice},</v>
       </c>
-      <c r="R34" t="str">
+      <c r="T34" t="str">
         <f t="shared" si="4"/>
         <v>#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marketCity},#{item.marke